--- a/Package Work Log.xlsx
+++ b/Package Work Log.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="mapping work" sheetId="5" r:id="rId4"/>
+    <sheet name="Packages Concept" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="286">
   <si>
     <t xml:space="preserve">tab Deliminted (0) ePHI BAA </t>
   </si>
@@ -147,13 +151,748 @@
   </si>
   <si>
     <t>Good SPROC</t>
+  </si>
+  <si>
+    <t>Export Type ID</t>
+  </si>
+  <si>
+    <t>Flow Label</t>
+  </si>
+  <si>
+    <t>MIECHV (2) ePHI (BAA)</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>NFPDataExtracts</t>
+  </si>
+  <si>
+    <t>MIECHV (3) Limited ePHI (DUA)</t>
+  </si>
+  <si>
+    <t>MIECHV (7) No ePHI (Service Agrmnt)</t>
+  </si>
+  <si>
+    <t>Tab Delimited (0) ePHI (BAA)</t>
+  </si>
+  <si>
+    <t>Tab Delimited (6)  No ePHI (Service Agrmnt)</t>
+  </si>
+  <si>
+    <t>Pipe Delimited (4) ePHI (BAA)</t>
+  </si>
+  <si>
+    <t>Pipe Delimited (5) Limited ePHI (DUA)</t>
+  </si>
+  <si>
+    <t>Pipe Delimited (8) No ePHI (Service Agmnt)</t>
+  </si>
+  <si>
+    <t>Tab Delimited (1) Limited ePHI (DUA)</t>
+  </si>
+  <si>
+    <t>No ePHI, Tab Delimited, MIECHV (2,3,7)</t>
+  </si>
+  <si>
+    <t>No ePHI, Tab Delimited, Non-MIECHV (0,1,6)</t>
+  </si>
+  <si>
+    <t>No ePHI, Pipe Delimited, Non-MIECHV (4,5,8)</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>TX Supplemental (BAA)</t>
+  </si>
+  <si>
+    <t>Custom Extracts</t>
+  </si>
+  <si>
+    <t>MN Special Data (BAA)</t>
+  </si>
+  <si>
+    <t>MN Special Data (DUA)</t>
+  </si>
+  <si>
+    <t>MN Special Data (Service Agrmnt)</t>
+  </si>
+  <si>
+    <t>ExportID=30 AND ExportTypeID=6</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>ExportID=30 AND ExportTypeID=1</t>
+  </si>
+  <si>
+    <t>ExportID=30 AND ExportTypeID=0</t>
+  </si>
+  <si>
+    <t>ExportID=72</t>
+  </si>
+  <si>
+    <t>WA MCV Special (WA DOH authorized to receive ePHI)</t>
+  </si>
+  <si>
+    <t>ExportID=51</t>
+  </si>
+  <si>
+    <t>ZIP FILE GETS MCV IN NAME</t>
+  </si>
+  <si>
+    <t>Alternative_Encounter</t>
+  </si>
+  <si>
+    <t>ASQ3</t>
+  </si>
+  <si>
+    <t>Home_Visit_Encounter</t>
+  </si>
+  <si>
+    <t>NFP Extracts</t>
+  </si>
+  <si>
+    <t>Infant_Birth</t>
+  </si>
+  <si>
+    <t>CaseLoad</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>Infant_Health</t>
+  </si>
+  <si>
+    <t>EnrollmentsAndDismissals</t>
+  </si>
+  <si>
+    <t>Maternal_Health</t>
+  </si>
+  <si>
+    <t>Client_Discharge</t>
+  </si>
+  <si>
+    <t>PHQ_Survey</t>
+  </si>
+  <si>
+    <t>Client_Funding</t>
+  </si>
+  <si>
+    <t>Govt_Comm_Srvcs</t>
+  </si>
+  <si>
+    <t>Referrals_To_NFP_Survey</t>
+  </si>
+  <si>
+    <t>Referrls_To_Services</t>
+  </si>
+  <si>
+    <t>Relationship_Survey</t>
+  </si>
+  <si>
+    <t>Health_Habbits</t>
+  </si>
+  <si>
+    <t>Clinical_IPV</t>
+  </si>
+  <si>
+    <t>Tribal_Survey</t>
+  </si>
+  <si>
+    <t>Telehealth</t>
+  </si>
+  <si>
+    <t>PFS Data Extracts</t>
+  </si>
+  <si>
+    <t>Transfers</t>
+  </si>
+  <si>
+    <t>PHQ9</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>JVO</t>
+  </si>
+  <si>
+    <t>ExportTypeID</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>Alternative_Encounter.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>ASQ3.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>CaseLoad.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_Clients ?</t>
+  </si>
+  <si>
+    <t>Participants_and_Referrals.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>Client_Discharge.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>Client_Funding.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ClinicalIPV ?</t>
+  </si>
+  <si>
+    <t>Clinical_IPV.txt</t>
+  </si>
+  <si>
+    <t>EXEC SSIS_Dance ?</t>
+  </si>
+  <si>
+    <t>Dance.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_Demographics ?</t>
+  </si>
+  <si>
+    <t>Demographics.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>Edinburgh.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EnrollmentsAndDismissals.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.ssis_gad7 ?</t>
+  </si>
+  <si>
+    <t>Gad7.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>Govt_Comm_Srvcs.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>Health_Habits.txt</t>
+  </si>
+  <si>
+    <t>EXEC SSIS_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>Home_Visit_Encounter.txt</t>
+  </si>
+  <si>
+    <t>EXEC SSIS_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>Infant_Birth.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>Infant_Health.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>Maternal_Health.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_PHQ ?</t>
+  </si>
+  <si>
+    <t>PHQ-9.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>Referrals_To_NFP.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>Referrals_To_Services.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_Relationship ?</t>
+  </si>
+  <si>
+    <t>Relationships.txt</t>
+  </si>
+  <si>
+    <t>exec SSIS_Telehealth ?</t>
+  </si>
+  <si>
+    <t>Telehealth.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_Tribal ?</t>
+  </si>
+  <si>
+    <t>Tribal.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.ssis_star ?</t>
+  </si>
+  <si>
+    <t>Star.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISDUA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ClinicalIPV ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Demographics ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISDUA_DANCE ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_PHQ ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_Transfers ?</t>
+  </si>
+  <si>
+    <t>Transfers.txt</t>
+  </si>
+  <si>
+    <t>exec SSISDUA_Telehealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Star ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Relationship ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISDUA_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCV_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_Clients ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCV_ClinicalIPV ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_DANCE ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_Demographics ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>exec dbo.ssismcv_gad7 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_HealthHabits  ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_PHQ ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCV_Relationship ?</t>
+  </si>
+  <si>
+    <t>exec ssismcv_star ?</t>
+  </si>
+  <si>
+    <t>exec SSISMCV_Telehealth ?</t>
+  </si>
+  <si>
+    <t>exec dbo.ssismcv_tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISDUA_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCVDUA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_ClinicalIPV ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_DANCE ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_Demographics ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCVDUA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_PHQ ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVDUA_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC SSIS_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_DANCE ?</t>
+  </si>
+  <si>
+    <t>exec SSISDUA_PRC_SC_Custom_Agencies ?</t>
+  </si>
+  <si>
+    <t>Agencies.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Dance ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_PHQ ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISDUA_Telehealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>exec SSISDUA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Demographics ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISSA_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_PHQ ?</t>
+  </si>
+  <si>
+    <t>exec SSISSA_Telehealth ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISSA_Tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISSA_DANCE ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISSA_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISSA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Relationship ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISSA_Star ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Demographics ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_PHQ ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISSA_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCVSA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Relationship ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Star ?</t>
+  </si>
+  <si>
+    <t>exec SSISMCVSA_Telehealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISMCVSA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_DANCE ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCVSA_Tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Star ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>JobTypeID</t>
+  </si>
+  <si>
+    <t>NFP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +918,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +948,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -230,11 +1021,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +1160,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,20 +1583,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="55.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -592,7 +1607,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -607,7 +1622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,7 +1637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -633,7 +1648,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -644,7 +1659,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,7 +1670,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -666,7 +1681,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -677,7 +1692,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -688,7 +1703,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -699,7 +1714,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -710,7 +1725,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -721,7 +1736,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -732,7 +1747,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -743,7 +1758,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -754,7 +1769,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +1780,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -776,7 +1791,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -787,7 +1802,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -798,7 +1813,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -809,7 +1824,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -820,7 +1835,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -831,7 +1846,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -842,7 +1857,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -853,7 +1868,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -864,116 +1879,116 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -990,4 +2005,5038 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="31">
+        <v>2</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="31">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="31">
+        <v>7</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33">
+        <v>6</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="31">
+        <v>4</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="31">
+        <v>5</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="31">
+        <v>8</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="44"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="44"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="44"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="44"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E2:H4"/>
+    <mergeCell ref="E15:H17"/>
+    <mergeCell ref="E5:H14"/>
+    <mergeCell ref="I2:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="43">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
+        <v>0</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="43">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="43">
+        <v>0</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="43">
+        <v>0</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="43">
+        <v>0</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="43">
+        <v>0</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>0</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
+        <v>0</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>0</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
+        <v>0</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
+        <v>0</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>0</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
+        <v>0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
+        <v>0</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="43">
+        <v>0</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
+        <v>0</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
+        <v>0</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
+        <v>0</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="43">
+        <v>0</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="43">
+        <v>0</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="43">
+        <v>0</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="43">
+        <v>0</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="43">
+        <v>0</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="43">
+        <v>0</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
+        <v>1</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>1</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="43">
+        <v>1</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="43">
+        <v>1</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="43">
+        <v>1</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="43">
+        <v>1</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
+        <v>1</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="43">
+        <v>1</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="43">
+        <v>1</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
+        <v>1</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
+        <v>1</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="43">
+        <v>1</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="43">
+        <v>1</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="43">
+        <v>1</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="43">
+        <v>1</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="43">
+        <v>1</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="43">
+        <v>1</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="43">
+        <v>1</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="43">
+        <v>1</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="43">
+        <v>1</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="43">
+        <v>1</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="43">
+        <v>1</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="43">
+        <v>1</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="43">
+        <v>1</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="52">
+        <v>2</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="52">
+        <v>2</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="52">
+        <v>2</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="52">
+        <v>2</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>2</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>2</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>2</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>2</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="52">
+        <v>2</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="52">
+        <v>2</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="52">
+        <v>2</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="52">
+        <v>2</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="52">
+        <v>2</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="52">
+        <v>2</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="52">
+        <v>2</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="52">
+        <v>2</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="52">
+        <v>2</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="52">
+        <v>2</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="52">
+        <v>2</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="52">
+        <v>2</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="52">
+        <v>2</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="52">
+        <v>2</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="52">
+        <v>2</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="52">
+        <v>2</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="52">
+        <v>2</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="52">
+        <v>2</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="52">
+        <v>3</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="52">
+        <v>3</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="52">
+        <v>3</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="52">
+        <v>3</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="52">
+        <v>3</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="52">
+        <v>3</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="52">
+        <v>3</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="52">
+        <v>3</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="52">
+        <v>3</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="52">
+        <v>3</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="52">
+        <v>3</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="52">
+        <v>3</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="52">
+        <v>3</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="52">
+        <v>3</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="52">
+        <v>3</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="52">
+        <v>3</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="52">
+        <v>3</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="52">
+        <v>3</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="52">
+        <v>3</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="52">
+        <v>3</v>
+      </c>
+      <c r="B100" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="52">
+        <v>3</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="52">
+        <v>3</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="52">
+        <v>3</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="52">
+        <v>3</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="52">
+        <v>4</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="53"/>
+      <c r="F106" s="53"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="52">
+        <v>4</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E107" s="53"/>
+      <c r="F107" s="53"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="52">
+        <v>4</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="52">
+        <v>4</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="53"/>
+      <c r="F109" s="53"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="52">
+        <v>4</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="53"/>
+      <c r="F110" s="53"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="52">
+        <v>4</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="53"/>
+      <c r="F111" s="53"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="52">
+        <v>4</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="52">
+        <v>4</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="52">
+        <v>4</v>
+      </c>
+      <c r="B114" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="52">
+        <v>4</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="53"/>
+      <c r="F115" s="53"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="52">
+        <v>4</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="53"/>
+      <c r="F116" s="53"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="52">
+        <v>4</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E117" s="53"/>
+      <c r="F117" s="53"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="52">
+        <v>4</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D118" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="52">
+        <v>4</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" s="53"/>
+      <c r="F119" s="53"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="52">
+        <v>4</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="52">
+        <v>4</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D121" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E121" s="53"/>
+      <c r="F121" s="53"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="52">
+        <v>4</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E122" s="53"/>
+      <c r="F122" s="53"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="52">
+        <v>4</v>
+      </c>
+      <c r="B123" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" s="53"/>
+      <c r="F123" s="53"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="52">
+        <v>4</v>
+      </c>
+      <c r="B124" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E124" s="53"/>
+      <c r="F124" s="53"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="52">
+        <v>4</v>
+      </c>
+      <c r="B125" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="53"/>
+      <c r="F125" s="53"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="52">
+        <v>4</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E126" s="53"/>
+      <c r="F126" s="53"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="52">
+        <v>4</v>
+      </c>
+      <c r="B127" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E127" s="53"/>
+      <c r="F127" s="53"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="52">
+        <v>4</v>
+      </c>
+      <c r="B128" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="53"/>
+      <c r="F128" s="53"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="52">
+        <v>4</v>
+      </c>
+      <c r="B129" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D129" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" s="53"/>
+      <c r="F129" s="53"/>
+    </row>
+  </sheetData>
+  <sortState ref="B106:B129">
+    <sortCondition ref="B106:B129"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D54:F79"/>
+    <mergeCell ref="D81:F104"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>285</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>285</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>285</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>285</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>285</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>285</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>285</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>285</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>285</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>285</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>285</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>285</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>285</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>124</v>
+      </c>
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>106</v>
+      </c>
+      <c r="D102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>285</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>285</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>285</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>285</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>285</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>144</v>
+      </c>
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>285</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>146</v>
+      </c>
+      <c r="D116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>122</v>
+      </c>
+      <c r="D118" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>285</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121" t="s">
+        <v>112</v>
+      </c>
+      <c r="D121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>285</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>223</v>
+      </c>
+      <c r="D122" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>285</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>285</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>285</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>168</v>
+      </c>
+      <c r="D125" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>173</v>
+      </c>
+      <c r="D128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>228</v>
+      </c>
+      <c r="D130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>285</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+      <c r="D132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>174</v>
+      </c>
+      <c r="D134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>176</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>285</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>151</v>
+      </c>
+      <c r="D136" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>285</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>229</v>
+      </c>
+      <c r="D137" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>170</v>
+      </c>
+      <c r="D138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>285</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>175</v>
+      </c>
+      <c r="D139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>230</v>
+      </c>
+      <c r="D141" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>285</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>171</v>
+      </c>
+      <c r="D143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>152</v>
+      </c>
+      <c r="D144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>161</v>
+      </c>
+      <c r="D145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>231</v>
+      </c>
+      <c r="D146" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>285</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>232</v>
+      </c>
+      <c r="D147" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149" t="s">
+        <v>234</v>
+      </c>
+      <c r="D149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150" t="s">
+        <v>235</v>
+      </c>
+      <c r="D150" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>285</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>236</v>
+      </c>
+      <c r="D151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>285</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>237</v>
+      </c>
+      <c r="D152" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>285</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>239</v>
+      </c>
+      <c r="D154" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>285</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>240</v>
+      </c>
+      <c r="D155" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>285</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>242</v>
+      </c>
+      <c r="D157" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>285</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>243</v>
+      </c>
+      <c r="D158" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>285</v>
+      </c>
+      <c r="B159">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>244</v>
+      </c>
+      <c r="D159" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>285</v>
+      </c>
+      <c r="B160">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>245</v>
+      </c>
+      <c r="D160" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>285</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>246</v>
+      </c>
+      <c r="D161" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>247</v>
+      </c>
+      <c r="D162" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>285</v>
+      </c>
+      <c r="B163">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>249</v>
+      </c>
+      <c r="D164" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>285</v>
+      </c>
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>250</v>
+      </c>
+      <c r="D165" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>285</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>251</v>
+      </c>
+      <c r="D166" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>285</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>252</v>
+      </c>
+      <c r="D167" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>285</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>253</v>
+      </c>
+      <c r="D168" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>285</v>
+      </c>
+      <c r="B169">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>254</v>
+      </c>
+      <c r="D169" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>285</v>
+      </c>
+      <c r="B170">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>255</v>
+      </c>
+      <c r="D170" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>256</v>
+      </c>
+      <c r="D171" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>285</v>
+      </c>
+      <c r="B172">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>257</v>
+      </c>
+      <c r="D172" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>285</v>
+      </c>
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>258</v>
+      </c>
+      <c r="D173" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>285</v>
+      </c>
+      <c r="B174">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>259</v>
+      </c>
+      <c r="D174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>285</v>
+      </c>
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+      <c r="D175" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>285</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>261</v>
+      </c>
+      <c r="D176" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>285</v>
+      </c>
+      <c r="B177">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>262</v>
+      </c>
+      <c r="D177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>285</v>
+      </c>
+      <c r="B178">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>263</v>
+      </c>
+      <c r="D178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>285</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>264</v>
+      </c>
+      <c r="D179" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>285</v>
+      </c>
+      <c r="B180">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>265</v>
+      </c>
+      <c r="D180" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>285</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>266</v>
+      </c>
+      <c r="D181" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>285</v>
+      </c>
+      <c r="B182">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>267</v>
+      </c>
+      <c r="D182" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>285</v>
+      </c>
+      <c r="B183">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>268</v>
+      </c>
+      <c r="D183" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>285</v>
+      </c>
+      <c r="B184">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>269</v>
+      </c>
+      <c r="D184" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>285</v>
+      </c>
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>270</v>
+      </c>
+      <c r="D185" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>285</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>271</v>
+      </c>
+      <c r="D186" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>285</v>
+      </c>
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>272</v>
+      </c>
+      <c r="D187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>285</v>
+      </c>
+      <c r="B188">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>273</v>
+      </c>
+      <c r="D188" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>285</v>
+      </c>
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>274</v>
+      </c>
+      <c r="D189" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>285</v>
+      </c>
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>275</v>
+      </c>
+      <c r="D190" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>285</v>
+      </c>
+      <c r="B191">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>276</v>
+      </c>
+      <c r="D191" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>285</v>
+      </c>
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>277</v>
+      </c>
+      <c r="D192" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>285</v>
+      </c>
+      <c r="B193">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>278</v>
+      </c>
+      <c r="D193" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>285</v>
+      </c>
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>233</v>
+      </c>
+      <c r="D194" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>285</v>
+      </c>
+      <c r="B195">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>240</v>
+      </c>
+      <c r="D195" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>285</v>
+      </c>
+      <c r="B196">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>254</v>
+      </c>
+      <c r="D196" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>285</v>
+      </c>
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>239</v>
+      </c>
+      <c r="D197" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>285</v>
+      </c>
+      <c r="B198">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>234</v>
+      </c>
+      <c r="D198" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>285</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>235</v>
+      </c>
+      <c r="D199" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>285</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>236</v>
+      </c>
+      <c r="D200" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>285</v>
+      </c>
+      <c r="B201">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>279</v>
+      </c>
+      <c r="D201" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>285</v>
+      </c>
+      <c r="B202">
+        <v>8</v>
+      </c>
+      <c r="C202" t="s">
+        <v>237</v>
+      </c>
+      <c r="D202" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>285</v>
+      </c>
+      <c r="B203">
+        <v>8</v>
+      </c>
+      <c r="C203" t="s">
+        <v>280</v>
+      </c>
+      <c r="D203" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>285</v>
+      </c>
+      <c r="B204">
+        <v>8</v>
+      </c>
+      <c r="C204" t="s">
+        <v>243</v>
+      </c>
+      <c r="D204" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>285</v>
+      </c>
+      <c r="B205">
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>244</v>
+      </c>
+      <c r="D205" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>285</v>
+      </c>
+      <c r="B206">
+        <v>8</v>
+      </c>
+      <c r="C206" t="s">
+        <v>241</v>
+      </c>
+      <c r="D206" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>285</v>
+      </c>
+      <c r="B207">
+        <v>8</v>
+      </c>
+      <c r="C207" t="s">
+        <v>242</v>
+      </c>
+      <c r="D207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>285</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="C208" t="s">
+        <v>251</v>
+      </c>
+      <c r="D208" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>285</v>
+      </c>
+      <c r="B209">
+        <v>8</v>
+      </c>
+      <c r="C209" t="s">
+        <v>281</v>
+      </c>
+      <c r="D209" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>285</v>
+      </c>
+      <c r="B210">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>245</v>
+      </c>
+      <c r="D210" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>285</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211" t="s">
+        <v>246</v>
+      </c>
+      <c r="D211" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>285</v>
+      </c>
+      <c r="B212">
+        <v>8</v>
+      </c>
+      <c r="C212" t="s">
+        <v>253</v>
+      </c>
+      <c r="D212" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>285</v>
+      </c>
+      <c r="B213">
+        <v>8</v>
+      </c>
+      <c r="C213" t="s">
+        <v>282</v>
+      </c>
+      <c r="D213" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>285</v>
+      </c>
+      <c r="B214">
+        <v>8</v>
+      </c>
+      <c r="C214" t="s">
+        <v>248</v>
+      </c>
+      <c r="D214" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>285</v>
+      </c>
+      <c r="B215">
+        <v>8</v>
+      </c>
+      <c r="C215" t="s">
+        <v>249</v>
+      </c>
+      <c r="D215" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>285</v>
+      </c>
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216" t="s">
+        <v>283</v>
+      </c>
+      <c r="D216" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>285</v>
+      </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
+      <c r="C217" t="s">
+        <v>252</v>
+      </c>
+      <c r="D217" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Package Work Log.xlsx
+++ b/Package Work Log.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="427">
   <si>
     <t xml:space="preserve">tab Deliminted (0) ePHI BAA </t>
   </si>
@@ -886,6 +886,429 @@
   </si>
   <si>
     <t>NFP</t>
+  </si>
+  <si>
+    <t>ExportTypeIDLabel</t>
+  </si>
+  <si>
+    <t>No ePHI Tab Delimited MIECHV</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_SurveyIDs ?</t>
+  </si>
+  <si>
+    <t>SurveyIDs.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_NewHire ?</t>
+  </si>
+  <si>
+    <t>New_Hire.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_StaffUpdate ?</t>
+  </si>
+  <si>
+    <t>Staff_Update.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCV_ExportMetricsSummary ?</t>
+  </si>
+  <si>
+    <t>ExportSummary.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCV_ExportMetricsDetail ?</t>
+  </si>
+  <si>
+    <t>ExportDetail.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_WeeklySupervision ?</t>
+  </si>
+  <si>
+    <t>WeeklySupervision.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_CourseCompletion ?</t>
+  </si>
+  <si>
+    <t>Course_Completion.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_IAStaff ?</t>
+  </si>
+  <si>
+    <t>Staff.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_EducationRegistration ?</t>
+  </si>
+  <si>
+    <t>Education_Registration.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_AgencyProfile ?</t>
+  </si>
+  <si>
+    <t>Agency_Profile.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_ProgramAndSites ?</t>
+  </si>
+  <si>
+    <t>ProgramsAndSites.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MNChildIntake ?</t>
+  </si>
+  <si>
+    <t>MNChildIntake.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MNPrimaryCaregiverClosure ?</t>
+  </si>
+  <si>
+    <t>MNPrimaryCaregiverClosure.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MNPrimaryCaregiverIntake ?</t>
+  </si>
+  <si>
+    <t>MNPrimaryCaregiverIntake.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MN18MosToddler ?</t>
+  </si>
+  <si>
+    <t>MN18MosToddler.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MN6MosInfant ?</t>
+  </si>
+  <si>
+    <t>MN6MosInfant.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MN24MosToddler ?</t>
+  </si>
+  <si>
+    <t>MN24MosToddler.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_MN12MosInfant ?</t>
+  </si>
+  <si>
+    <t>MN12MosInfant.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MNChildIntake ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MN24MosToddler ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MN18MosToddler ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MNPrimaryCaregiverIntake ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MNPrimaryCaregiverClosure ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MN12MosInfant ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISDUA_MN6MosInfant ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MNChildIntake ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MN24MosToddler ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MN18MosToddler ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MNPrimaryCaregiverIntake ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISSA_MNPrimaryCaregiverClosure ?</t>
+  </si>
+  <si>
+    <t>MN Special Data (Service Agreement)</t>
+  </si>
+  <si>
+    <t>No ePHI Pipe Delimited Non-MIECHV</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ExportMetricsSummary ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_WeeklySupervision ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ProgramAndSites ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_ExportMetricsDetail ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_NewHire ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_IAStaff ?</t>
+  </si>
+  <si>
+    <t>No ePHI Tab Delimited Non-MIECHV</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_CourseCompletion ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_AgencyProfile ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_StaffUpdate ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_EducationRegistration ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_TX6Mos ?</t>
+  </si>
+  <si>
+    <t>TX_SupMiechv6mo.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_TXIntake ?</t>
+  </si>
+  <si>
+    <t>TX_SupMiechvIntake.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_TX2Mos ?</t>
+  </si>
+  <si>
+    <t>TX_SupMiechv2mo.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_TX12Mos ?</t>
+  </si>
+  <si>
+    <t>TX_SupMiechv12mo.txt</t>
+  </si>
+  <si>
+    <t>exec dbo.SSIS_TX3rdTri ?</t>
+  </si>
+  <si>
+    <t>TX_SupMiechv3rdTri.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISMCV_WA_MIECHV ?</t>
+  </si>
+  <si>
+    <t>WA_MIECHV.txt</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFS_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_PHQ ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_Demographics ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFS_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFS_GAD7 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFS_STAR ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFS_Dance ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_Tribal ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.[SSISPFSDUA_Demographics] ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_ReferralsToNFP ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_ASQ3 ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFSDUA_DANCE ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_InfantBirth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_ReferralsToServices ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_CaseLoad ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_InfantHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Relationship ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_MaternalHealth ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Star ?</t>
+  </si>
+  <si>
+    <t>EXEC [SSISPFSDUA_ClientDischarge] ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Gad7 ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Tribal ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFSDUA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFSDUA_PHQ ?</t>
+  </si>
+  <si>
+    <t>EXEC SSISPFS_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFS_JVO ?</t>
+  </si>
+  <si>
+    <t>NFP_Study\JVO.txt</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFS_Relationship ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFS_DANCE ?</t>
+  </si>
+  <si>
+    <t>exec dbo.SSISPFS_HomeEncounter ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Edinburgh ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_PHQ ?</t>
+  </si>
+  <si>
+    <t>exec SSISPFSDUA_EnrollmentAndDismissal ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSIS_SurveyIDs ?</t>
+  </si>
+  <si>
+    <t>No ePHI Tab Delimited NON-MIECHV</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Dance ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_ClientFunding ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_ClientDischarge ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Clients ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_GovtCommSrvcs ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_Demographics ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_AltEncountExport ?</t>
+  </si>
+  <si>
+    <t>EXEC dbo.SSISPFSDUA_HealthHabits ?</t>
+  </si>
+  <si>
+    <t>No ePHI Pipe Delimited Non Miechv</t>
   </si>
 </sst>
 </file>
@@ -1154,12 +1577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1167,8 +1584,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,34 +1678,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,12 +1687,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,15 +2020,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1900,16 +2323,16 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
@@ -2019,383 +2442,383 @@
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28" style="8" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="45" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="10">
         <v>7</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="45"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="10">
         <v>4</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="10">
         <v>5</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="10">
         <v>8</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="42"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2427,1532 +2850,1532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="43">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="43">
+      <c r="A3" s="22">
         <v>0</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="43">
+      <c r="A4" s="22">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="43">
+      <c r="A5" s="22">
         <v>0</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="43">
+      <c r="A6" s="22">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="43">
+      <c r="A7" s="22">
         <v>0</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="43">
+      <c r="A8" s="22">
         <v>0</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
+      <c r="A9" s="22">
         <v>0</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="43">
+      <c r="A10" s="22">
         <v>0</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="22">
         <v>0</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="43">
+      <c r="A12" s="22">
         <v>0</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="43">
+      <c r="A13" s="22">
         <v>0</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="43">
+      <c r="A14" s="22">
         <v>0</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
+      <c r="A15" s="22">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="43">
+      <c r="A16" s="22">
         <v>0</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="43">
+      <c r="A17" s="22">
         <v>0</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="43">
+      <c r="A18" s="22">
         <v>0</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="43">
+      <c r="A19" s="22">
         <v>0</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="43">
+      <c r="A20" s="22">
         <v>0</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
+      <c r="A21" s="22">
         <v>0</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="43">
+      <c r="A22" s="22">
         <v>0</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="43">
+      <c r="A23" s="22">
         <v>0</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="43">
+      <c r="A24" s="22">
         <v>0</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="43">
+      <c r="A25" s="22">
         <v>0</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="43">
+      <c r="A26" s="22">
         <v>0</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="43">
+      <c r="A28" s="22">
         <v>1</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="43">
+      <c r="A29" s="22">
         <v>1</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="43">
+      <c r="A30" s="22">
         <v>1</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="43">
+      <c r="A31" s="22">
         <v>1</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="43">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
+      <c r="A33" s="22">
         <v>1</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
+      <c r="A34" s="22">
         <v>1</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="43">
+      <c r="A35" s="22">
         <v>1</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="43">
+      <c r="A36" s="22">
         <v>1</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="43">
+      <c r="A37" s="22">
         <v>1</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="43">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
+      <c r="A39" s="22">
         <v>1</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="43">
+      <c r="A40" s="22">
         <v>1</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="43">
+      <c r="A41" s="22">
         <v>1</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="43">
+      <c r="A42" s="22">
         <v>1</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="43">
+      <c r="A43" s="22">
         <v>1</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="43">
+      <c r="A44" s="22">
         <v>1</v>
       </c>
-      <c r="B44" s="43" t="s">
+      <c r="B44" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="43">
+      <c r="A45" s="22">
         <v>1</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="43">
+      <c r="A46" s="22">
         <v>1</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="43">
+      <c r="A47" s="22">
         <v>1</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="43">
+      <c r="A48" s="22">
         <v>1</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="43">
+      <c r="A49" s="22">
         <v>1</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="43">
+      <c r="A50" s="22">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="43">
+      <c r="A51" s="22">
         <v>1</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="43">
+      <c r="A52" s="22">
         <v>1</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="52">
+      <c r="A54" s="28">
         <v>2</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="52">
+      <c r="A55" s="28">
         <v>2</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="52">
+      <c r="A56" s="28">
         <v>2</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="52">
+      <c r="A57" s="28">
         <v>2</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
+      <c r="A58" s="28">
         <v>2</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="52">
+      <c r="A59" s="28">
         <v>2</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="52">
+      <c r="A60" s="28">
         <v>2</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
+      <c r="A61" s="28">
         <v>2</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="52">
+      <c r="A62" s="28">
         <v>2</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="52">
+      <c r="A63" s="28">
         <v>2</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="52">
+      <c r="A64" s="28">
         <v>2</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="52">
+      <c r="A65" s="28">
         <v>2</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="52">
+      <c r="A66" s="28">
         <v>2</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="B66" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="52">
+      <c r="A67" s="28">
         <v>2</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="52">
+      <c r="A68" s="28">
         <v>2</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="52">
+      <c r="A69" s="28">
         <v>2</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="52">
+      <c r="A70" s="28">
         <v>2</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="52">
+      <c r="A71" s="28">
         <v>2</v>
       </c>
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="52">
+      <c r="A72" s="28">
         <v>2</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="52">
+      <c r="A73" s="28">
         <v>2</v>
       </c>
-      <c r="B73" s="43" t="s">
+      <c r="B73" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="52">
+      <c r="A74" s="28">
         <v>2</v>
       </c>
-      <c r="B74" s="43" t="s">
+      <c r="B74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="52">
+      <c r="A75" s="28">
         <v>2</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="52">
+      <c r="A76" s="28">
         <v>2</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="52">
+      <c r="A77" s="28">
         <v>2</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="52">
+      <c r="A78" s="28">
         <v>2</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="52">
+      <c r="A79" s="28">
         <v>2</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="52">
+      <c r="A81" s="28">
         <v>3</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="52">
+      <c r="A82" s="28">
         <v>3</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="52">
+      <c r="A83" s="28">
         <v>3</v>
       </c>
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="52">
+      <c r="A84" s="28">
         <v>3</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="52">
+      <c r="A85" s="28">
         <v>3</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="52">
+      <c r="A86" s="28">
         <v>3</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="52">
+      <c r="A87" s="28">
         <v>3</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="52">
+      <c r="A88" s="28">
         <v>3</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="52">
+      <c r="A89" s="28">
         <v>3</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="52">
+      <c r="A90" s="28">
         <v>3</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="52">
+      <c r="A91" s="28">
         <v>3</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B91" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="52">
+      <c r="A92" s="28">
         <v>3</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
+      <c r="D92" s="53"/>
+      <c r="E92" s="53"/>
+      <c r="F92" s="53"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="52">
+      <c r="A93" s="28">
         <v>3</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
+      <c r="D93" s="53"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="53"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="52">
+      <c r="A94" s="28">
         <v>3</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="52">
+      <c r="A95" s="28">
         <v>3</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="52">
+      <c r="A96" s="28">
         <v>3</v>
       </c>
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="52">
+      <c r="A97" s="28">
         <v>3</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="52">
+      <c r="A98" s="28">
         <v>3</v>
       </c>
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="52">
+      <c r="A99" s="28">
         <v>3</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="52">
+      <c r="A100" s="28">
         <v>3</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="52">
+      <c r="A101" s="28">
         <v>3</v>
       </c>
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="52">
+      <c r="A102" s="28">
         <v>3</v>
       </c>
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="53"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="52">
+      <c r="A103" s="28">
         <v>3</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="52">
+      <c r="A104" s="28">
         <v>3</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
+      <c r="D104" s="53"/>
+      <c r="E104" s="53"/>
+      <c r="F104" s="53"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="52">
+      <c r="A106" s="28">
         <v>4</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="D106" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E106" s="53"/>
-      <c r="F106" s="53"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="52">
+      <c r="A107" s="28">
         <v>4</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D107" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E107" s="53"/>
-      <c r="F107" s="53"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="52">
+      <c r="A108" s="28">
         <v>4</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D108" s="53" t="s">
+      <c r="D108" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="52">
+      <c r="A109" s="28">
         <v>4</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D109" s="53" t="s">
+      <c r="D109" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E109" s="53"/>
-      <c r="F109" s="53"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="52">
+      <c r="A110" s="28">
         <v>4</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D110" s="53" t="s">
+      <c r="D110" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="52">
+      <c r="A111" s="28">
         <v>4</v>
       </c>
-      <c r="B111" s="43" t="s">
+      <c r="B111" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="53" t="s">
+      <c r="D111" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="52">
+      <c r="A112" s="28">
         <v>4</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D112" s="53" t="s">
+      <c r="D112" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="52">
+      <c r="A113" s="28">
         <v>4</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="53" t="s">
+      <c r="D113" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="52">
+      <c r="A114" s="28">
         <v>4</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="53" t="s">
+      <c r="D114" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="52">
+      <c r="A115" s="28">
         <v>4</v>
       </c>
-      <c r="B115" s="43" t="s">
+      <c r="B115" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D115" s="53" t="s">
+      <c r="D115" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E115" s="53"/>
-      <c r="F115" s="53"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="52">
+      <c r="A116" s="28">
         <v>4</v>
       </c>
-      <c r="B116" s="43" t="s">
+      <c r="B116" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D116" s="53" t="s">
+      <c r="D116" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="53"/>
-      <c r="F116" s="53"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="52">
+      <c r="A117" s="28">
         <v>4</v>
       </c>
-      <c r="B117" s="43" t="s">
+      <c r="B117" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D117" s="53" t="s">
+      <c r="D117" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E117" s="53"/>
-      <c r="F117" s="53"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="52">
+      <c r="A118" s="28">
         <v>4</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D118" s="53" t="s">
+      <c r="D118" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E118" s="53"/>
-      <c r="F118" s="53"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="52">
+      <c r="A119" s="28">
         <v>4</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="53" t="s">
+      <c r="D119" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E119" s="53"/>
-      <c r="F119" s="53"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="52">
+      <c r="A120" s="28">
         <v>4</v>
       </c>
-      <c r="B120" s="43" t="s">
+      <c r="B120" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D120" s="53" t="s">
+      <c r="D120" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="52">
+      <c r="A121" s="28">
         <v>4</v>
       </c>
-      <c r="B121" s="43" t="s">
+      <c r="B121" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D121" s="53" t="s">
+      <c r="D121" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="52">
+      <c r="A122" s="28">
         <v>4</v>
       </c>
-      <c r="B122" s="43" t="s">
+      <c r="B122" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D122" s="53" t="s">
+      <c r="D122" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="52">
+      <c r="A123" s="28">
         <v>4</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D123" s="53" t="s">
+      <c r="D123" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E123" s="53"/>
-      <c r="F123" s="53"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="52">
+      <c r="A124" s="28">
         <v>4</v>
       </c>
-      <c r="B124" s="43" t="s">
+      <c r="B124" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D124" s="53" t="s">
+      <c r="D124" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E124" s="53"/>
-      <c r="F124" s="53"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="52">
+      <c r="A125" s="28">
         <v>4</v>
       </c>
-      <c r="B125" s="43" t="s">
+      <c r="B125" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D125" s="53" t="s">
+      <c r="D125" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E125" s="53"/>
-      <c r="F125" s="53"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="52">
+      <c r="A126" s="28">
         <v>4</v>
       </c>
-      <c r="B126" s="43" t="s">
+      <c r="B126" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D126" s="53" t="s">
+      <c r="D126" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E126" s="53"/>
-      <c r="F126" s="53"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="52">
+      <c r="A127" s="28">
         <v>4</v>
       </c>
-      <c r="B127" s="43" t="s">
+      <c r="B127" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D127" s="53" t="s">
+      <c r="D127" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E127" s="53"/>
-      <c r="F127" s="53"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="52">
+      <c r="A128" s="28">
         <v>4</v>
       </c>
-      <c r="B128" s="43" t="s">
+      <c r="B128" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D128" s="53" t="s">
+      <c r="D128" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E128" s="53"/>
-      <c r="F128" s="53"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="52">
+      <c r="A129" s="28">
         <v>4</v>
       </c>
-      <c r="B129" s="43" t="s">
+      <c r="B129" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D129" s="53" t="s">
+      <c r="D129" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E129" s="53"/>
-      <c r="F129" s="53"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
     </row>
   </sheetData>
   <sortState ref="B106:B129">
@@ -3970,20 +4393,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D217"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L360" sqref="L360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -3991,3034 +4416,5614 @@
         <v>97</v>
       </c>
       <c r="C1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>285</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>285</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>285</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>285</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>285</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>285</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>110</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>285</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>112</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>114</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>285</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>116</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>285</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>118</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>285</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>120</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>285</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>285</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>124</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>285</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>126</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>285</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>128</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>130</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>285</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>132</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>285</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>134</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>285</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>136</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>285</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>138</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>140</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>285</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>142</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>285</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>144</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>285</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>146</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>285</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>148</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>285</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>154</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>285</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>285</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>151</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>285</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>153</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>285</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>152</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>285</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>155</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>285</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>156</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>285</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>157</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>285</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>158</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>285</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>159</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>285</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>160</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>285</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>161</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>285</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>162</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>285</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>163</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>285</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>164</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>285</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>285</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>167</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>285</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>168</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>285</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>169</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>285</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>170</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>285</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>171</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>285</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>172</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>285</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>173</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>285</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>174</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>285</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>175</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>285</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>176</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>285</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>177</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>285</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>178</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>285</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>179</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>285</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>180</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>285</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>181</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>285</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>182</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>285</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>183</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>285</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>285</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>185</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>285</v>
       </c>
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>186</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>285</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>187</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>285</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>188</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>285</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>189</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>285</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>190</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>285</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>191</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>285</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>192</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>285</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>193</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>285</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>194</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>285</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>195</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>285</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>196</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>285</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>197</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>285</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>198</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>285</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>199</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>285</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>200</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>285</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>201</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>285</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>202</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>285</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>203</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>285</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>204</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>285</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>205</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>285</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>206</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>285</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>207</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>285</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>208</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>285</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>209</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>285</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>210</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>285</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>211</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>285</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>212</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>285</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>213</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>285</v>
       </c>
       <c r="B90">
         <v>3</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>214</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>285</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>215</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>285</v>
       </c>
       <c r="B92">
         <v>3</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>216</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>285</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>217</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>285</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>218</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>285</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>219</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>285</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>220</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>285</v>
       </c>
       <c r="B97">
         <v>4</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>221</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>285</v>
       </c>
       <c r="B98">
         <v>4</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>134</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>285</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>102</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>285</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>222</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>285</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>124</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>285</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>106</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>285</v>
       </c>
       <c r="B103">
         <v>4</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>116</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>285</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>126</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>285</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>104</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>285</v>
       </c>
       <c r="B106">
         <v>4</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>118</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>285</v>
       </c>
       <c r="B107">
         <v>4</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>128</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>285</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>136</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>285</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>108</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>285</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>120</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>285</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>130</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>285</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>138</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>285</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>142</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>285</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>148</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>285</v>
       </c>
       <c r="B115">
         <v>4</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>144</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>285</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>146</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>285</v>
       </c>
       <c r="B117">
         <v>4</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>110</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>285</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>122</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>285</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>132</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>285</v>
       </c>
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>140</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>285</v>
       </c>
       <c r="B121">
         <v>4</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>112</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>285</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>223</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>285</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>156</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>285</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>225</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>285</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>168</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>285</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>154</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>285</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>226</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>285</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>173</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>285</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>227</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>285</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>228</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>285</v>
       </c>
       <c r="B131">
         <v>5</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>150</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>285</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>157</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>285</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>172</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>285</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>174</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>285</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>176</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>285</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>151</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>285</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>229</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>285</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>170</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>285</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>175</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>285</v>
       </c>
       <c r="B140">
         <v>5</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>153</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>285</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>230</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>285</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>169</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>285</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>171</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>285</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>152</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>285</v>
       </c>
       <c r="B145">
         <v>5</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>161</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>285</v>
       </c>
       <c r="B146">
         <v>5</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>231</v>
       </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>285</v>
       </c>
       <c r="B147">
         <v>5</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>232</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>285</v>
       </c>
       <c r="B148">
         <v>6</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>233</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>285</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>234</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>285</v>
       </c>
       <c r="B150">
         <v>6</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>235</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>285</v>
       </c>
       <c r="B151">
         <v>6</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>236</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>285</v>
       </c>
       <c r="B152">
         <v>6</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>237</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>285</v>
       </c>
       <c r="B153">
         <v>6</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>238</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>285</v>
       </c>
       <c r="B154">
         <v>6</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>239</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>285</v>
       </c>
       <c r="B155">
         <v>6</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>240</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>285</v>
       </c>
       <c r="B156">
         <v>6</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>241</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>285</v>
       </c>
       <c r="B157">
         <v>6</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>242</v>
       </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>285</v>
       </c>
       <c r="B158">
         <v>6</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>243</v>
       </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>285</v>
       </c>
       <c r="B159">
         <v>6</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>244</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>285</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>245</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>285</v>
       </c>
       <c r="B161">
         <v>6</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>246</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>285</v>
       </c>
       <c r="B162">
         <v>6</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>247</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>285</v>
       </c>
       <c r="B163">
         <v>6</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>248</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>285</v>
       </c>
       <c r="B164">
         <v>6</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>249</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>285</v>
       </c>
       <c r="B165">
         <v>6</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>250</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>285</v>
       </c>
       <c r="B166">
         <v>6</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>251</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>285</v>
       </c>
       <c r="B167">
         <v>6</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>252</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>285</v>
       </c>
       <c r="B168">
         <v>6</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>253</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>285</v>
       </c>
       <c r="B169">
         <v>6</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>254</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>285</v>
       </c>
       <c r="B170">
         <v>7</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>255</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>285</v>
       </c>
       <c r="B171">
         <v>7</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>256</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>285</v>
       </c>
       <c r="B172">
         <v>7</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>257</v>
       </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>285</v>
       </c>
       <c r="B173">
         <v>7</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>258</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>285</v>
       </c>
       <c r="B174">
         <v>7</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>259</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>285</v>
       </c>
       <c r="B175">
         <v>7</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>260</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>285</v>
       </c>
       <c r="B176">
         <v>7</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>261</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>285</v>
       </c>
       <c r="B177">
         <v>7</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>262</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>285</v>
       </c>
       <c r="B178">
         <v>7</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>263</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>285</v>
       </c>
       <c r="B179">
         <v>7</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>264</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>285</v>
       </c>
       <c r="B180">
         <v>7</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>265</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>285</v>
       </c>
       <c r="B181">
         <v>7</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>266</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>285</v>
       </c>
       <c r="B182">
         <v>7</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>267</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>285</v>
       </c>
       <c r="B183">
         <v>7</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>268</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>285</v>
       </c>
       <c r="B184">
         <v>7</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>269</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>285</v>
       </c>
       <c r="B185">
         <v>7</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>270</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>285</v>
       </c>
       <c r="B186">
         <v>7</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>271</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>285</v>
       </c>
       <c r="B187">
         <v>7</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>272</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>285</v>
       </c>
       <c r="B188">
         <v>7</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>273</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>285</v>
       </c>
       <c r="B189">
         <v>7</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>274</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>285</v>
       </c>
       <c r="B190">
         <v>7</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>275</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>285</v>
       </c>
       <c r="B191">
         <v>7</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>276</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>285</v>
       </c>
       <c r="B192">
         <v>7</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>277</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>285</v>
       </c>
       <c r="B193">
         <v>7</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>278</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>285</v>
       </c>
       <c r="B194">
         <v>8</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>233</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>285</v>
       </c>
       <c r="B195">
         <v>8</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>240</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>285</v>
       </c>
       <c r="B196">
         <v>8</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>254</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>285</v>
       </c>
       <c r="B197">
         <v>8</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>239</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>285</v>
       </c>
       <c r="B198">
         <v>8</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>234</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>285</v>
       </c>
       <c r="B199">
         <v>8</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>235</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>285</v>
       </c>
       <c r="B200">
         <v>8</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>236</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>285</v>
       </c>
       <c r="B201">
         <v>8</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>279</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>285</v>
       </c>
       <c r="B202">
         <v>8</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>237</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>285</v>
       </c>
       <c r="B203">
         <v>8</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>280</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>285</v>
       </c>
       <c r="B204">
         <v>8</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>243</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>285</v>
       </c>
       <c r="B205">
         <v>8</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>244</v>
       </c>
-      <c r="D205" t="s">
+      <c r="E205" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>285</v>
       </c>
       <c r="B206">
         <v>8</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>241</v>
       </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>285</v>
       </c>
       <c r="B207">
         <v>8</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>242</v>
       </c>
-      <c r="D207" t="s">
+      <c r="E207" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>285</v>
       </c>
       <c r="B208">
         <v>8</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>251</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>285</v>
       </c>
       <c r="B209">
         <v>8</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>281</v>
       </c>
-      <c r="D209" t="s">
+      <c r="E209" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>285</v>
       </c>
       <c r="B210">
         <v>8</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>245</v>
       </c>
-      <c r="D210" t="s">
+      <c r="E210" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>285</v>
       </c>
       <c r="B211">
         <v>8</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>246</v>
       </c>
-      <c r="D211" t="s">
+      <c r="E211" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>285</v>
       </c>
       <c r="B212">
         <v>8</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>253</v>
       </c>
-      <c r="D212" t="s">
+      <c r="E212" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>285</v>
       </c>
       <c r="B213">
         <v>8</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>282</v>
       </c>
-      <c r="D213" t="s">
+      <c r="E213" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>285</v>
       </c>
       <c r="B214">
         <v>8</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>248</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>285</v>
       </c>
       <c r="B215">
         <v>8</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>249</v>
       </c>
-      <c r="D215" t="s">
+      <c r="E215" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>285</v>
       </c>
       <c r="B216">
         <v>8</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>283</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>285</v>
       </c>
       <c r="B217">
         <v>8</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>252</v>
       </c>
-      <c r="D217" t="s">
+      <c r="E217" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>285</v>
+      </c>
+      <c r="B218">
+        <v>1000</v>
+      </c>
+      <c r="C218" t="s">
+        <v>287</v>
+      </c>
+      <c r="D218" t="s">
+        <v>288</v>
+      </c>
+      <c r="E218" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>285</v>
+      </c>
+      <c r="B219">
+        <v>1000</v>
+      </c>
+      <c r="C219" t="s">
+        <v>287</v>
+      </c>
+      <c r="D219" t="s">
+        <v>290</v>
+      </c>
+      <c r="E219" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>285</v>
+      </c>
+      <c r="B220">
+        <v>1000</v>
+      </c>
+      <c r="C220" t="s">
+        <v>287</v>
+      </c>
+      <c r="D220" t="s">
+        <v>292</v>
+      </c>
+      <c r="E220" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>285</v>
+      </c>
+      <c r="B221">
+        <v>1000</v>
+      </c>
+      <c r="C221" t="s">
+        <v>287</v>
+      </c>
+      <c r="D221" t="s">
+        <v>294</v>
+      </c>
+      <c r="E221" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>285</v>
+      </c>
+      <c r="B222">
+        <v>1000</v>
+      </c>
+      <c r="C222" t="s">
+        <v>287</v>
+      </c>
+      <c r="D222" t="s">
+        <v>296</v>
+      </c>
+      <c r="E222" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>285</v>
+      </c>
+      <c r="B223">
+        <v>1000</v>
+      </c>
+      <c r="C223" t="s">
+        <v>287</v>
+      </c>
+      <c r="D223" t="s">
+        <v>298</v>
+      </c>
+      <c r="E223" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>285</v>
+      </c>
+      <c r="B224">
+        <v>1000</v>
+      </c>
+      <c r="C224" t="s">
+        <v>287</v>
+      </c>
+      <c r="D224" t="s">
+        <v>300</v>
+      </c>
+      <c r="E224" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>285</v>
+      </c>
+      <c r="B225">
+        <v>1000</v>
+      </c>
+      <c r="C225" t="s">
+        <v>287</v>
+      </c>
+      <c r="D225" t="s">
+        <v>302</v>
+      </c>
+      <c r="E225" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>285</v>
+      </c>
+      <c r="B226">
+        <v>1000</v>
+      </c>
+      <c r="C226" t="s">
+        <v>287</v>
+      </c>
+      <c r="D226" t="s">
+        <v>304</v>
+      </c>
+      <c r="E226" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>285</v>
+      </c>
+      <c r="B227">
+        <v>1000</v>
+      </c>
+      <c r="C227" t="s">
+        <v>287</v>
+      </c>
+      <c r="D227" t="s">
+        <v>306</v>
+      </c>
+      <c r="E227" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>285</v>
+      </c>
+      <c r="B228">
+        <v>1000</v>
+      </c>
+      <c r="C228" t="s">
+        <v>287</v>
+      </c>
+      <c r="D228" t="s">
+        <v>308</v>
+      </c>
+      <c r="E228" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>285</v>
+      </c>
+      <c r="B229">
+        <v>1001</v>
+      </c>
+      <c r="C229" t="s">
+        <v>60</v>
+      </c>
+      <c r="D229" t="s">
+        <v>310</v>
+      </c>
+      <c r="E229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>285</v>
+      </c>
+      <c r="B230">
+        <v>1001</v>
+      </c>
+      <c r="C230" t="s">
+        <v>60</v>
+      </c>
+      <c r="D230" t="s">
+        <v>312</v>
+      </c>
+      <c r="E230" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>285</v>
+      </c>
+      <c r="B231">
+        <v>1001</v>
+      </c>
+      <c r="C231" t="s">
+        <v>60</v>
+      </c>
+      <c r="D231" t="s">
+        <v>314</v>
+      </c>
+      <c r="E231" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>285</v>
+      </c>
+      <c r="B232">
+        <v>1001</v>
+      </c>
+      <c r="C232" t="s">
+        <v>60</v>
+      </c>
+      <c r="D232" t="s">
+        <v>316</v>
+      </c>
+      <c r="E232" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233">
+        <v>1001</v>
+      </c>
+      <c r="C233" t="s">
+        <v>60</v>
+      </c>
+      <c r="D233" t="s">
+        <v>318</v>
+      </c>
+      <c r="E233" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>285</v>
+      </c>
+      <c r="B234">
+        <v>1001</v>
+      </c>
+      <c r="C234" t="s">
+        <v>60</v>
+      </c>
+      <c r="D234" t="s">
+        <v>320</v>
+      </c>
+      <c r="E234" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>285</v>
+      </c>
+      <c r="B235">
+        <v>1001</v>
+      </c>
+      <c r="C235" t="s">
+        <v>60</v>
+      </c>
+      <c r="D235" t="s">
+        <v>322</v>
+      </c>
+      <c r="E235" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>285</v>
+      </c>
+      <c r="B236">
+        <v>1002</v>
+      </c>
+      <c r="C236" t="s">
+        <v>61</v>
+      </c>
+      <c r="D236" t="s">
+        <v>324</v>
+      </c>
+      <c r="E236" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>285</v>
+      </c>
+      <c r="B237">
+        <v>1002</v>
+      </c>
+      <c r="C237" t="s">
+        <v>61</v>
+      </c>
+      <c r="D237" t="s">
+        <v>325</v>
+      </c>
+      <c r="E237" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>285</v>
+      </c>
+      <c r="B238">
+        <v>1002</v>
+      </c>
+      <c r="C238" t="s">
+        <v>61</v>
+      </c>
+      <c r="D238" t="s">
+        <v>326</v>
+      </c>
+      <c r="E238" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>285</v>
+      </c>
+      <c r="B239">
+        <v>1002</v>
+      </c>
+      <c r="C239" t="s">
+        <v>61</v>
+      </c>
+      <c r="D239" t="s">
+        <v>327</v>
+      </c>
+      <c r="E239" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>285</v>
+      </c>
+      <c r="B240">
+        <v>1002</v>
+      </c>
+      <c r="C240" t="s">
+        <v>61</v>
+      </c>
+      <c r="D240" t="s">
+        <v>328</v>
+      </c>
+      <c r="E240" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>285</v>
+      </c>
+      <c r="B241">
+        <v>1002</v>
+      </c>
+      <c r="C241" t="s">
+        <v>61</v>
+      </c>
+      <c r="D241" t="s">
+        <v>329</v>
+      </c>
+      <c r="E241" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>285</v>
+      </c>
+      <c r="B242">
+        <v>1002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>61</v>
+      </c>
+      <c r="D242" t="s">
+        <v>330</v>
+      </c>
+      <c r="E242" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>285</v>
+      </c>
+      <c r="B243">
+        <v>1003</v>
+      </c>
+      <c r="C243" t="s">
+        <v>336</v>
+      </c>
+      <c r="D243" t="s">
+        <v>331</v>
+      </c>
+      <c r="E243" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>285</v>
+      </c>
+      <c r="B244">
+        <v>1003</v>
+      </c>
+      <c r="C244" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" t="s">
+        <v>332</v>
+      </c>
+      <c r="E244" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>285</v>
+      </c>
+      <c r="B245">
+        <v>1003</v>
+      </c>
+      <c r="C245" t="s">
+        <v>336</v>
+      </c>
+      <c r="D245" t="s">
+        <v>333</v>
+      </c>
+      <c r="E245" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>285</v>
+      </c>
+      <c r="B246">
+        <v>1003</v>
+      </c>
+      <c r="C246" t="s">
+        <v>336</v>
+      </c>
+      <c r="D246" t="s">
+        <v>334</v>
+      </c>
+      <c r="E246" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>285</v>
+      </c>
+      <c r="B247">
+        <v>1003</v>
+      </c>
+      <c r="C247" t="s">
+        <v>336</v>
+      </c>
+      <c r="D247" t="s">
+        <v>335</v>
+      </c>
+      <c r="E247" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>285</v>
+      </c>
+      <c r="B248">
+        <v>1004</v>
+      </c>
+      <c r="C248" t="s">
+        <v>337</v>
+      </c>
+      <c r="D248" t="s">
+        <v>338</v>
+      </c>
+      <c r="E248" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>285</v>
+      </c>
+      <c r="B249">
+        <v>1004</v>
+      </c>
+      <c r="C249" t="s">
+        <v>337</v>
+      </c>
+      <c r="D249" t="s">
+        <v>339</v>
+      </c>
+      <c r="E249" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>285</v>
+      </c>
+      <c r="B250">
+        <v>1004</v>
+      </c>
+      <c r="C250" t="s">
+        <v>337</v>
+      </c>
+      <c r="D250" t="s">
+        <v>340</v>
+      </c>
+      <c r="E250" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>285</v>
+      </c>
+      <c r="B251">
+        <v>1004</v>
+      </c>
+      <c r="C251" t="s">
+        <v>337</v>
+      </c>
+      <c r="D251" t="s">
+        <v>341</v>
+      </c>
+      <c r="E251" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>285</v>
+      </c>
+      <c r="B252">
+        <v>1004</v>
+      </c>
+      <c r="C252" t="s">
+        <v>337</v>
+      </c>
+      <c r="D252" t="s">
+        <v>342</v>
+      </c>
+      <c r="E252" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>285</v>
+      </c>
+      <c r="B253">
+        <v>1004</v>
+      </c>
+      <c r="C253" t="s">
+        <v>337</v>
+      </c>
+      <c r="D253" t="s">
+        <v>343</v>
+      </c>
+      <c r="E253" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>285</v>
+      </c>
+      <c r="B254">
+        <v>1005</v>
+      </c>
+      <c r="C254" t="s">
+        <v>344</v>
+      </c>
+      <c r="D254" t="s">
+        <v>338</v>
+      </c>
+      <c r="E254" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>285</v>
+      </c>
+      <c r="B255">
+        <v>1005</v>
+      </c>
+      <c r="C255" t="s">
+        <v>344</v>
+      </c>
+      <c r="D255" t="s">
+        <v>288</v>
+      </c>
+      <c r="E255" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>285</v>
+      </c>
+      <c r="B256">
+        <v>1005</v>
+      </c>
+      <c r="C256" t="s">
+        <v>344</v>
+      </c>
+      <c r="D256" t="s">
+        <v>341</v>
+      </c>
+      <c r="E256" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>285</v>
+      </c>
+      <c r="B257">
+        <v>1005</v>
+      </c>
+      <c r="C257" t="s">
+        <v>344</v>
+      </c>
+      <c r="D257" t="s">
+        <v>342</v>
+      </c>
+      <c r="E257" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>285</v>
+      </c>
+      <c r="B258">
+        <v>1005</v>
+      </c>
+      <c r="C258" t="s">
+        <v>344</v>
+      </c>
+      <c r="D258" t="s">
+        <v>340</v>
+      </c>
+      <c r="E258" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>285</v>
+      </c>
+      <c r="B259">
+        <v>1005</v>
+      </c>
+      <c r="C259" t="s">
+        <v>344</v>
+      </c>
+      <c r="D259" t="s">
+        <v>343</v>
+      </c>
+      <c r="E259" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>285</v>
+      </c>
+      <c r="B260">
+        <v>1005</v>
+      </c>
+      <c r="C260" t="s">
+        <v>344</v>
+      </c>
+      <c r="D260" t="s">
+        <v>345</v>
+      </c>
+      <c r="E260" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>285</v>
+      </c>
+      <c r="B261">
+        <v>1005</v>
+      </c>
+      <c r="C261" t="s">
+        <v>344</v>
+      </c>
+      <c r="D261" t="s">
+        <v>346</v>
+      </c>
+      <c r="E261" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>285</v>
+      </c>
+      <c r="B262">
+        <v>1005</v>
+      </c>
+      <c r="C262" t="s">
+        <v>344</v>
+      </c>
+      <c r="D262" t="s">
+        <v>347</v>
+      </c>
+      <c r="E262" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>285</v>
+      </c>
+      <c r="B263">
+        <v>1005</v>
+      </c>
+      <c r="C263" t="s">
+        <v>344</v>
+      </c>
+      <c r="D263" t="s">
+        <v>348</v>
+      </c>
+      <c r="E263" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>285</v>
+      </c>
+      <c r="B264">
+        <v>1005</v>
+      </c>
+      <c r="C264" t="s">
+        <v>344</v>
+      </c>
+      <c r="D264" t="s">
+        <v>339</v>
+      </c>
+      <c r="E264" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>285</v>
+      </c>
+      <c r="B265">
+        <v>1006</v>
+      </c>
+      <c r="C265" t="s">
+        <v>58</v>
+      </c>
+      <c r="D265" t="s">
+        <v>349</v>
+      </c>
+      <c r="E265" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>285</v>
+      </c>
+      <c r="B266">
+        <v>1006</v>
+      </c>
+      <c r="C266" t="s">
+        <v>58</v>
+      </c>
+      <c r="D266" t="s">
+        <v>351</v>
+      </c>
+      <c r="E266" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>285</v>
+      </c>
+      <c r="B267">
+        <v>1006</v>
+      </c>
+      <c r="C267" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267" t="s">
+        <v>353</v>
+      </c>
+      <c r="E267" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>285</v>
+      </c>
+      <c r="B268">
+        <v>1006</v>
+      </c>
+      <c r="C268" t="s">
+        <v>58</v>
+      </c>
+      <c r="D268" t="s">
+        <v>355</v>
+      </c>
+      <c r="E268" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269">
+        <v>1006</v>
+      </c>
+      <c r="C269" t="s">
+        <v>58</v>
+      </c>
+      <c r="D269" t="s">
+        <v>357</v>
+      </c>
+      <c r="E269" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>285</v>
+      </c>
+      <c r="B270">
+        <v>1007</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>359</v>
+      </c>
+      <c r="E270" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>361</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>362</v>
+      </c>
+      <c r="E271" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>361</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="D272" t="s">
+        <v>363</v>
+      </c>
+      <c r="E272" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>361</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>364</v>
+      </c>
+      <c r="E273" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>361</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>365</v>
+      </c>
+      <c r="E274" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>361</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>366</v>
+      </c>
+      <c r="E275" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>361</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>367</v>
+      </c>
+      <c r="E276" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>361</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>368</v>
+      </c>
+      <c r="E277" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>361</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>369</v>
+      </c>
+      <c r="E278" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>361</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>370</v>
+      </c>
+      <c r="E279" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>361</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>371</v>
+      </c>
+      <c r="E280" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>361</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="D281" t="s">
+        <v>372</v>
+      </c>
+      <c r="E281" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>361</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="D282" t="s">
+        <v>373</v>
+      </c>
+      <c r="E282" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>361</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>374</v>
+      </c>
+      <c r="E283" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>361</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>375</v>
+      </c>
+      <c r="E284" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>361</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>142</v>
+      </c>
+      <c r="E285" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>361</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="D286" t="s">
+        <v>376</v>
+      </c>
+      <c r="E286" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="D287" t="s">
+        <v>377</v>
+      </c>
+      <c r="E287" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>361</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>378</v>
+      </c>
+      <c r="E288" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>361</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>379</v>
+      </c>
+      <c r="E289" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>361</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="D290" t="s">
+        <v>380</v>
+      </c>
+      <c r="E290" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>361</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="D291" t="s">
+        <v>381</v>
+      </c>
+      <c r="E291" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>361</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="D292" t="s">
+        <v>382</v>
+      </c>
+      <c r="E292" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>361</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="D293" t="s">
+        <v>383</v>
+      </c>
+      <c r="E293" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>361</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>384</v>
+      </c>
+      <c r="E294" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>361</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>385</v>
+      </c>
+      <c r="E295" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>361</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>386</v>
+      </c>
+      <c r="E296" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>361</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>387</v>
+      </c>
+      <c r="E297" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>361</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>388</v>
+      </c>
+      <c r="E298" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>361</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>389</v>
+      </c>
+      <c r="E299" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>361</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>390</v>
+      </c>
+      <c r="E300" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>361</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>391</v>
+      </c>
+      <c r="E301" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>361</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>392</v>
+      </c>
+      <c r="E302" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>361</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>393</v>
+      </c>
+      <c r="E303" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>361</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>394</v>
+      </c>
+      <c r="E304" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>361</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>395</v>
+      </c>
+      <c r="E305" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>361</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>396</v>
+      </c>
+      <c r="E306" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>361</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>397</v>
+      </c>
+      <c r="E307" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>361</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>398</v>
+      </c>
+      <c r="E308" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>361</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>399</v>
+      </c>
+      <c r="E309" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>361</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>400</v>
+      </c>
+      <c r="E310" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>361</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>401</v>
+      </c>
+      <c r="E311" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>361</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>402</v>
+      </c>
+      <c r="E312" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>361</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>403</v>
+      </c>
+      <c r="E313" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>361</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>404</v>
+      </c>
+      <c r="E314" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>361</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>405</v>
+      </c>
+      <c r="E315" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>361</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>406</v>
+      </c>
+      <c r="E316" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>361</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="D317" t="s">
+        <v>407</v>
+      </c>
+      <c r="E317" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>361</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="D318" t="s">
+        <v>408</v>
+      </c>
+      <c r="E318" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>361</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+      <c r="D319" t="s">
+        <v>410</v>
+      </c>
+      <c r="E319" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>361</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="D320" t="s">
+        <v>365</v>
+      </c>
+      <c r="E320" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>361</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="D321" t="s">
+        <v>411</v>
+      </c>
+      <c r="E321" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>361</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="D322" t="s">
+        <v>380</v>
+      </c>
+      <c r="E322" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>361</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="D323" t="s">
+        <v>375</v>
+      </c>
+      <c r="E323" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>361</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>378</v>
+      </c>
+      <c r="E324" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>361</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+      <c r="D325" t="s">
+        <v>373</v>
+      </c>
+      <c r="E325" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>361</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>366</v>
+      </c>
+      <c r="E326" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>361</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="D327" t="s">
+        <v>382</v>
+      </c>
+      <c r="E327" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>361</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="D328" t="s">
+        <v>369</v>
+      </c>
+      <c r="E328" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>361</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+      <c r="D329" t="s">
+        <v>370</v>
+      </c>
+      <c r="E329" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>361</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="D330" t="s">
+        <v>412</v>
+      </c>
+      <c r="E330" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>361</v>
+      </c>
+      <c r="B331">
+        <v>4</v>
+      </c>
+      <c r="D331" t="s">
+        <v>364</v>
+      </c>
+      <c r="E331" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>361</v>
+      </c>
+      <c r="B332">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>376</v>
+      </c>
+      <c r="E332" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>361</v>
+      </c>
+      <c r="B333">
+        <v>4</v>
+      </c>
+      <c r="D333" t="s">
+        <v>374</v>
+      </c>
+      <c r="E333" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>361</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="D334" t="s">
+        <v>367</v>
+      </c>
+      <c r="E334" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>361</v>
+      </c>
+      <c r="B335">
+        <v>4</v>
+      </c>
+      <c r="D335" t="s">
+        <v>368</v>
+      </c>
+      <c r="E335" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>361</v>
+      </c>
+      <c r="B336">
+        <v>4</v>
+      </c>
+      <c r="D336" t="s">
+        <v>383</v>
+      </c>
+      <c r="E336" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>361</v>
+      </c>
+      <c r="B337">
+        <v>4</v>
+      </c>
+      <c r="D337" t="s">
+        <v>379</v>
+      </c>
+      <c r="E337" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>361</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+      <c r="D338" t="s">
+        <v>377</v>
+      </c>
+      <c r="E338" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>361</v>
+      </c>
+      <c r="B339">
+        <v>4</v>
+      </c>
+      <c r="D339" t="s">
+        <v>132</v>
+      </c>
+      <c r="E339" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>361</v>
+      </c>
+      <c r="B340">
+        <v>4</v>
+      </c>
+      <c r="D340" t="s">
+        <v>140</v>
+      </c>
+      <c r="E340" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>361</v>
+      </c>
+      <c r="B341">
+        <v>5</v>
+      </c>
+      <c r="D341" t="s">
+        <v>413</v>
+      </c>
+      <c r="E341" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>361</v>
+      </c>
+      <c r="B342">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
+        <v>392</v>
+      </c>
+      <c r="E342" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>361</v>
+      </c>
+      <c r="B343">
+        <v>5</v>
+      </c>
+      <c r="D343" t="s">
+        <v>402</v>
+      </c>
+      <c r="E343" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>361</v>
+      </c>
+      <c r="B344">
+        <v>5</v>
+      </c>
+      <c r="D344" t="s">
+        <v>414</v>
+      </c>
+      <c r="E344" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>361</v>
+      </c>
+      <c r="B345">
+        <v>5</v>
+      </c>
+      <c r="D345" t="s">
+        <v>388</v>
+      </c>
+      <c r="E345" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>361</v>
+      </c>
+      <c r="B346">
+        <v>5</v>
+      </c>
+      <c r="D346" t="s">
+        <v>415</v>
+      </c>
+      <c r="E346" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>361</v>
+      </c>
+      <c r="B347">
+        <v>5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>418</v>
+      </c>
+      <c r="E347" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>361</v>
+      </c>
+      <c r="B348">
+        <v>5</v>
+      </c>
+      <c r="D348" t="s">
+        <v>419</v>
+      </c>
+      <c r="E348" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>361</v>
+      </c>
+      <c r="B349">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>391</v>
+      </c>
+      <c r="E349" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>361</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
+      </c>
+      <c r="D350" t="s">
+        <v>399</v>
+      </c>
+      <c r="E350" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>361</v>
+      </c>
+      <c r="B351">
+        <v>5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>420</v>
+      </c>
+      <c r="E351" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352">
+        <v>5</v>
+      </c>
+      <c r="D352" t="s">
+        <v>421</v>
+      </c>
+      <c r="E352" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>361</v>
+      </c>
+      <c r="B353">
+        <v>5</v>
+      </c>
+      <c r="D353" t="s">
+        <v>394</v>
+      </c>
+      <c r="E353" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>361</v>
+      </c>
+      <c r="B354">
+        <v>5</v>
+      </c>
+      <c r="D354" t="s">
+        <v>390</v>
+      </c>
+      <c r="E354" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>361</v>
+      </c>
+      <c r="B355">
+        <v>5</v>
+      </c>
+      <c r="D355" t="s">
+        <v>401</v>
+      </c>
+      <c r="E355" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>361</v>
+      </c>
+      <c r="B356">
+        <v>5</v>
+      </c>
+      <c r="D356" t="s">
+        <v>395</v>
+      </c>
+      <c r="E356" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>361</v>
+      </c>
+      <c r="B357">
+        <v>5</v>
+      </c>
+      <c r="D357" t="s">
+        <v>422</v>
+      </c>
+      <c r="E357" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358">
+        <v>5</v>
+      </c>
+      <c r="D358" t="s">
+        <v>423</v>
+      </c>
+      <c r="E358" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>5</v>
+      </c>
+      <c r="D359" t="s">
+        <v>398</v>
+      </c>
+      <c r="E359" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360">
+        <v>5</v>
+      </c>
+      <c r="D360" t="s">
+        <v>386</v>
+      </c>
+      <c r="E360" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>5</v>
+      </c>
+      <c r="D361" t="s">
+        <v>387</v>
+      </c>
+      <c r="E361" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>5</v>
+      </c>
+      <c r="D362" t="s">
+        <v>424</v>
+      </c>
+      <c r="E362" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>5</v>
+      </c>
+      <c r="D363" t="s">
+        <v>425</v>
+      </c>
+      <c r="E363" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>361</v>
+      </c>
+      <c r="B364">
+        <v>1009</v>
+      </c>
+      <c r="C364" t="s">
+        <v>417</v>
+      </c>
+      <c r="D364" t="s">
+        <v>346</v>
+      </c>
+      <c r="E364" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>361</v>
+      </c>
+      <c r="B365">
+        <v>1009</v>
+      </c>
+      <c r="C365" t="s">
+        <v>417</v>
+      </c>
+      <c r="D365" t="s">
+        <v>343</v>
+      </c>
+      <c r="E365" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>361</v>
+      </c>
+      <c r="B366">
+        <v>1009</v>
+      </c>
+      <c r="C366" t="s">
+        <v>417</v>
+      </c>
+      <c r="D366" t="s">
+        <v>345</v>
+      </c>
+      <c r="E366" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>361</v>
+      </c>
+      <c r="B367">
+        <v>1009</v>
+      </c>
+      <c r="C367" t="s">
+        <v>417</v>
+      </c>
+      <c r="D367" t="s">
+        <v>342</v>
+      </c>
+      <c r="E367" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>361</v>
+      </c>
+      <c r="B368">
+        <v>1009</v>
+      </c>
+      <c r="C368" t="s">
+        <v>417</v>
+      </c>
+      <c r="D368" t="s">
+        <v>348</v>
+      </c>
+      <c r="E368" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>361</v>
+      </c>
+      <c r="B369">
+        <v>1009</v>
+      </c>
+      <c r="C369" t="s">
+        <v>417</v>
+      </c>
+      <c r="D369" t="s">
+        <v>340</v>
+      </c>
+      <c r="E369" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>361</v>
+      </c>
+      <c r="B370">
+        <v>1009</v>
+      </c>
+      <c r="C370" t="s">
+        <v>417</v>
+      </c>
+      <c r="D370" t="s">
+        <v>341</v>
+      </c>
+      <c r="E370" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>361</v>
+      </c>
+      <c r="B371">
+        <v>1009</v>
+      </c>
+      <c r="C371" t="s">
+        <v>417</v>
+      </c>
+      <c r="D371" t="s">
+        <v>347</v>
+      </c>
+      <c r="E371" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>361</v>
+      </c>
+      <c r="B372">
+        <v>1009</v>
+      </c>
+      <c r="C372" t="s">
+        <v>417</v>
+      </c>
+      <c r="D372" t="s">
+        <v>338</v>
+      </c>
+      <c r="E372" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>361</v>
+      </c>
+      <c r="B373">
+        <v>1009</v>
+      </c>
+      <c r="C373" t="s">
+        <v>417</v>
+      </c>
+      <c r="D373" t="s">
+        <v>288</v>
+      </c>
+      <c r="E373" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>361</v>
+      </c>
+      <c r="B374">
+        <v>1009</v>
+      </c>
+      <c r="C374" t="s">
+        <v>417</v>
+      </c>
+      <c r="D374" t="s">
+        <v>339</v>
+      </c>
+      <c r="E374" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>361</v>
+      </c>
+      <c r="B375">
+        <v>1008</v>
+      </c>
+      <c r="C375" t="s">
+        <v>426</v>
+      </c>
+      <c r="D375" t="s">
+        <v>346</v>
+      </c>
+      <c r="E375" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>361</v>
+      </c>
+      <c r="B376">
+        <v>1008</v>
+      </c>
+      <c r="C376" t="s">
+        <v>426</v>
+      </c>
+      <c r="D376" t="s">
+        <v>343</v>
+      </c>
+      <c r="E376" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>361</v>
+      </c>
+      <c r="B377">
+        <v>1008</v>
+      </c>
+      <c r="C377" t="s">
+        <v>426</v>
+      </c>
+      <c r="D377" t="s">
+        <v>345</v>
+      </c>
+      <c r="E377" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>361</v>
+      </c>
+      <c r="B378">
+        <v>1008</v>
+      </c>
+      <c r="C378" t="s">
+        <v>426</v>
+      </c>
+      <c r="D378" t="s">
+        <v>342</v>
+      </c>
+      <c r="E378" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>361</v>
+      </c>
+      <c r="B379">
+        <v>1008</v>
+      </c>
+      <c r="C379" t="s">
+        <v>426</v>
+      </c>
+      <c r="D379" t="s">
+        <v>348</v>
+      </c>
+      <c r="E379" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>361</v>
+      </c>
+      <c r="B380">
+        <v>1008</v>
+      </c>
+      <c r="C380" t="s">
+        <v>426</v>
+      </c>
+      <c r="D380" t="s">
+        <v>340</v>
+      </c>
+      <c r="E380" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>361</v>
+      </c>
+      <c r="B381">
+        <v>1008</v>
+      </c>
+      <c r="C381" t="s">
+        <v>426</v>
+      </c>
+      <c r="D381" t="s">
+        <v>341</v>
+      </c>
+      <c r="E381" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>361</v>
+      </c>
+      <c r="B382">
+        <v>1008</v>
+      </c>
+      <c r="C382" t="s">
+        <v>426</v>
+      </c>
+      <c r="D382" t="s">
+        <v>347</v>
+      </c>
+      <c r="E382" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>361</v>
+      </c>
+      <c r="B383">
+        <v>1008</v>
+      </c>
+      <c r="C383" t="s">
+        <v>426</v>
+      </c>
+      <c r="D383" t="s">
+        <v>338</v>
+      </c>
+      <c r="E383" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>361</v>
+      </c>
+      <c r="B384">
+        <v>1008</v>
+      </c>
+      <c r="C384" t="s">
+        <v>426</v>
+      </c>
+      <c r="D384" t="s">
+        <v>416</v>
+      </c>
+      <c r="E384" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>361</v>
+      </c>
+      <c r="B385">
+        <v>1008</v>
+      </c>
+      <c r="C385" t="s">
+        <v>426</v>
+      </c>
+      <c r="D385" t="s">
+        <v>339</v>
+      </c>
+      <c r="E385" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Package Work Log.xlsx
+++ b/Package Work Log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="NEW_PACKAGE" sheetId="7" r:id="rId6"/>
     <sheet name="HashingConfig" sheetId="10" r:id="rId7"/>
     <sheet name="Sheet5" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3705,6 +3706,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3780,8 +3783,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -7000,27 +7001,27 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -7061,7 +7062,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -7072,7 +7073,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -7083,7 +7084,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -7094,7 +7095,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -7105,7 +7106,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -7127,7 +7128,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -7138,7 +7139,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -7149,7 +7150,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -7160,7 +7161,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -7171,7 +7172,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -7182,7 +7183,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
@@ -7193,7 +7194,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -7204,7 +7205,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -7215,7 +7216,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -7226,7 +7227,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -7237,7 +7238,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -7248,7 +7249,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -7259,7 +7260,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -7270,7 +7271,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -7281,7 +7282,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -7292,116 +7293,116 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="4"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="4"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="54" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -7424,22 +7425,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="8" customWidth="1"/>
     <col min="4" max="4" width="28" style="8" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -7451,7 +7452,7 @@
       </c>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
@@ -7464,17 +7465,17 @@
       <c r="D2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="73" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="75" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>45</v>
       </c>
@@ -7487,13 +7488,13 @@
       <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="73"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="75"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
@@ -7506,13 +7507,13 @@
       <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="73"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="75"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -7525,14 +7526,14 @@
       <c r="D5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="66"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>45</v>
       </c>
@@ -7545,12 +7546,12 @@
       <c r="D6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="69"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>45</v>
       </c>
@@ -7563,12 +7564,12 @@
       <c r="D7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>45</v>
       </c>
@@ -7577,12 +7578,12 @@
       <c r="D8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>45</v>
       </c>
@@ -7591,12 +7592,12 @@
       <c r="D9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
@@ -7605,12 +7606,12 @@
       <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
@@ -7619,12 +7620,12 @@
       <c r="D11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>45</v>
       </c>
@@ -7633,12 +7634,12 @@
       <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>45</v>
       </c>
@@ -7647,12 +7648,12 @@
       <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>45</v>
       </c>
@@ -7661,12 +7662,12 @@
       <c r="D14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>45</v>
       </c>
@@ -7679,14 +7680,14 @@
       <c r="D15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
@@ -7699,12 +7700,12 @@
       <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
@@ -7717,12 +7718,12 @@
       <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>59</v>
       </c>
@@ -7734,7 +7735,7 @@
       </c>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>45</v>
       </c>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>45</v>
       </c>
@@ -7758,7 +7759,7 @@
       </c>
       <c r="D21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>45</v>
       </c>
@@ -7770,7 +7771,7 @@
       </c>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>45</v>
       </c>
@@ -7782,7 +7783,7 @@
       </c>
       <c r="D23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -7794,7 +7795,7 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>45</v>
       </c>
@@ -7802,7 +7803,7 @@
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>45</v>
       </c>
@@ -7810,7 +7811,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>0</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>1</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>2</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>3</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>4</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>5</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>6</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>7</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>8</v>
       </c>
@@ -7905,28 +7906,28 @@
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>0</v>
       </c>
@@ -7939,7 +7940,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>0</v>
       </c>
@@ -7952,7 +7953,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>0</v>
       </c>
@@ -7965,7 +7966,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>0</v>
       </c>
@@ -7978,7 +7979,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>0</v>
       </c>
@@ -7991,7 +7992,7 @@
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>0</v>
       </c>
@@ -8004,7 +8005,7 @@
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>0</v>
       </c>
@@ -8017,7 +8018,7 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>0</v>
       </c>
@@ -8030,7 +8031,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>0</v>
       </c>
@@ -8043,7 +8044,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>0</v>
       </c>
@@ -8056,7 +8057,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>0</v>
       </c>
@@ -8069,7 +8070,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>0</v>
       </c>
@@ -8082,7 +8083,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>0</v>
       </c>
@@ -8095,7 +8096,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>0</v>
       </c>
@@ -8108,7 +8109,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>0</v>
       </c>
@@ -8121,7 +8122,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>0</v>
       </c>
@@ -8134,7 +8135,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>0</v>
       </c>
@@ -8147,7 +8148,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>0</v>
       </c>
@@ -8160,7 +8161,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>0</v>
       </c>
@@ -8173,7 +8174,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>0</v>
       </c>
@@ -8186,7 +8187,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>0</v>
       </c>
@@ -8199,7 +8200,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>0</v>
       </c>
@@ -8212,7 +8213,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>0</v>
       </c>
@@ -8225,7 +8226,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>0</v>
       </c>
@@ -8238,7 +8239,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>0</v>
       </c>
@@ -8249,7 +8250,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -8257,7 +8258,7 @@
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>1</v>
       </c>
@@ -8270,7 +8271,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>1</v>
       </c>
@@ -8283,7 +8284,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>1</v>
       </c>
@@ -8296,7 +8297,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>1</v>
       </c>
@@ -8309,7 +8310,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>1</v>
       </c>
@@ -8322,7 +8323,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>1</v>
       </c>
@@ -8335,7 +8336,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>1</v>
       </c>
@@ -8348,7 +8349,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>1</v>
       </c>
@@ -8361,7 +8362,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>1</v>
       </c>
@@ -8374,7 +8375,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>1</v>
       </c>
@@ -8387,7 +8388,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>1</v>
       </c>
@@ -8400,7 +8401,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>1</v>
       </c>
@@ -8413,7 +8414,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>1</v>
       </c>
@@ -8426,7 +8427,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>1</v>
       </c>
@@ -8439,7 +8440,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>1</v>
       </c>
@@ -8452,7 +8453,7 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>1</v>
       </c>
@@ -8465,7 +8466,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>1</v>
       </c>
@@ -8478,7 +8479,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>1</v>
       </c>
@@ -8491,7 +8492,7 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>1</v>
       </c>
@@ -8504,7 +8505,7 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>1</v>
       </c>
@@ -8517,7 +8518,7 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>1</v>
       </c>
@@ -8530,7 +8531,7 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>1</v>
       </c>
@@ -8543,7 +8544,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>1</v>
       </c>
@@ -8554,7 +8555,7 @@
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>1</v>
       </c>
@@ -8565,7 +8566,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>1</v>
       </c>
@@ -8576,561 +8577,561 @@
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="28">
         <v>2</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="76" t="s">
+      <c r="D54" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>2</v>
       </c>
       <c r="B55" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>2</v>
       </c>
       <c r="B56" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="78"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>2</v>
       </c>
       <c r="B57" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>2</v>
       </c>
       <c r="B58" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="76"/>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>2</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>2</v>
       </c>
       <c r="B60" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>2</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D61" s="78"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="78"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="28">
         <v>2</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>2</v>
       </c>
       <c r="B63" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D63" s="78"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="78"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>2</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="76"/>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>2</v>
       </c>
       <c r="B65" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>2</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>2</v>
       </c>
       <c r="B67" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>2</v>
       </c>
       <c r="B68" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>2</v>
       </c>
       <c r="B69" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="78"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>2</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="76"/>
-      <c r="E70" s="76"/>
-      <c r="F70" s="76"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>2</v>
       </c>
       <c r="B71" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>2</v>
       </c>
       <c r="B72" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>2</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>2</v>
       </c>
       <c r="B74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>2</v>
       </c>
       <c r="B75" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>2</v>
       </c>
       <c r="B76" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>2</v>
       </c>
       <c r="B77" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="76"/>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>2</v>
       </c>
       <c r="B78" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="28">
         <v>2</v>
       </c>
       <c r="B79" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>3</v>
       </c>
       <c r="B81" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D81" s="76" t="s">
+      <c r="D81" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="78"/>
+      <c r="F81" s="78"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>3</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="78"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>3</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>3</v>
       </c>
       <c r="B84" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D84" s="78"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>3</v>
       </c>
       <c r="B85" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="76"/>
-      <c r="F85" s="76"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>3</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>3</v>
       </c>
       <c r="B87" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="28">
         <v>3</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>3</v>
       </c>
       <c r="B89" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>3</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>3</v>
       </c>
       <c r="B91" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="76"/>
-      <c r="E91" s="76"/>
-      <c r="F91" s="76"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>3</v>
       </c>
       <c r="B92" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="76"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>3</v>
       </c>
       <c r="B93" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D93" s="78"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="78"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>3</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>3</v>
       </c>
       <c r="B95" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="76"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="76"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="78"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>3</v>
       </c>
       <c r="B96" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D96" s="76"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="28">
         <v>3</v>
       </c>
       <c r="B97" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="76"/>
-      <c r="E97" s="76"/>
-      <c r="F97" s="76"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D97" s="78"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>3</v>
       </c>
       <c r="B98" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="76"/>
-      <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D98" s="78"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>3</v>
       </c>
       <c r="B99" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="76"/>
-      <c r="F99" s="76"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D99" s="78"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="78"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>3</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="76"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D100" s="78"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="78"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>3</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>3</v>
       </c>
       <c r="B102" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D102" s="78"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>3</v>
       </c>
       <c r="B103" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="76"/>
-      <c r="F103" s="76"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D103" s="78"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="78"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>3</v>
       </c>
       <c r="B104" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D104" s="76"/>
-      <c r="E104" s="76"/>
-      <c r="F104" s="76"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="28">
         <v>4</v>
       </c>
@@ -9143,7 +9144,7 @@
       <c r="E106" s="29"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>4</v>
       </c>
@@ -9156,7 +9157,7 @@
       <c r="E107" s="29"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>4</v>
       </c>
@@ -9169,7 +9170,7 @@
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>4</v>
       </c>
@@ -9182,7 +9183,7 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>4</v>
       </c>
@@ -9195,7 +9196,7 @@
       <c r="E110" s="29"/>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>4</v>
       </c>
@@ -9208,7 +9209,7 @@
       <c r="E111" s="29"/>
       <c r="F111" s="29"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>4</v>
       </c>
@@ -9221,7 +9222,7 @@
       <c r="E112" s="29"/>
       <c r="F112" s="29"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>4</v>
       </c>
@@ -9234,7 +9235,7 @@
       <c r="E113" s="29"/>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>4</v>
       </c>
@@ -9247,7 +9248,7 @@
       <c r="E114" s="29"/>
       <c r="F114" s="29"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="28">
         <v>4</v>
       </c>
@@ -9260,7 +9261,7 @@
       <c r="E115" s="29"/>
       <c r="F115" s="29"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>4</v>
       </c>
@@ -9273,7 +9274,7 @@
       <c r="E116" s="29"/>
       <c r="F116" s="29"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>4</v>
       </c>
@@ -9286,7 +9287,7 @@
       <c r="E117" s="29"/>
       <c r="F117" s="29"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>4</v>
       </c>
@@ -9299,7 +9300,7 @@
       <c r="E118" s="29"/>
       <c r="F118" s="29"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>4</v>
       </c>
@@ -9312,7 +9313,7 @@
       <c r="E119" s="29"/>
       <c r="F119" s="29"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>4</v>
       </c>
@@ -9325,7 +9326,7 @@
       <c r="E120" s="29"/>
       <c r="F120" s="29"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>4</v>
       </c>
@@ -9338,7 +9339,7 @@
       <c r="E121" s="29"/>
       <c r="F121" s="29"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>4</v>
       </c>
@@ -9351,7 +9352,7 @@
       <c r="E122" s="29"/>
       <c r="F122" s="29"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>4</v>
       </c>
@@ -9364,7 +9365,7 @@
       <c r="E123" s="29"/>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="28">
         <v>4</v>
       </c>
@@ -9377,7 +9378,7 @@
       <c r="E124" s="29"/>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>4</v>
       </c>
@@ -9390,7 +9391,7 @@
       <c r="E125" s="29"/>
       <c r="F125" s="29"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>4</v>
       </c>
@@ -9403,7 +9404,7 @@
       <c r="E126" s="29"/>
       <c r="F126" s="29"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>4</v>
       </c>
@@ -9416,7 +9417,7 @@
       <c r="E127" s="29"/>
       <c r="F127" s="29"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>4</v>
       </c>
@@ -9429,7 +9430,7 @@
       <c r="E128" s="29"/>
       <c r="F128" s="29"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>4</v>
       </c>
@@ -9464,16 +9465,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>166</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>165</v>
       </c>
@@ -9498,7 +9499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>0</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>4</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="32">
         <v>5</v>
       </c>
@@ -9584,7 +9585,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>6</v>
       </c>
@@ -9597,7 +9598,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>7</v>
       </c>
@@ -9610,7 +9611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>8</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="32">
         <v>1000</v>
       </c>
@@ -9636,7 +9637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="32">
         <v>1001</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="32">
         <v>1002</v>
       </c>
@@ -9662,7 +9663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="32">
         <v>1003</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="32">
         <v>1004</v>
       </c>
@@ -9688,7 +9689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="32">
         <v>1005</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>1006</v>
       </c>
@@ -9714,7 +9715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32">
         <v>1007</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32">
         <v>1008</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32">
         <v>1009</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>163</v>
       </c>
@@ -9762,7 +9763,7 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>164</v>
       </c>
@@ -9790,17 +9791,17 @@
       <selection activeCell="J47" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="10" max="10" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>127</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -9862,7 +9863,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>128</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -9963,7 +9964,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>128</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -10047,7 +10048,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -10068,7 +10069,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -10089,7 +10090,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -10110,7 +10111,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>158</v>
       </c>
@@ -10256,7 +10257,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>128</v>
       </c>
@@ -10296,7 +10297,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>128</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>128</v>
       </c>
@@ -10421,7 +10422,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -10501,7 +10502,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -10522,7 +10523,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -10563,7 +10564,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -10583,7 +10584,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -10623,7 +10624,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>128</v>
       </c>
@@ -10663,7 +10664,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>128</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>158</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>128</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>158</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>128</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -10909,7 +10910,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>158</v>
       </c>
@@ -10929,7 +10930,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>128</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>158</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>128</v>
       </c>
@@ -11013,7 +11014,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>128</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>128</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>128</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>128</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>128</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>128</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>128</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>158</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>128</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>128</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>128</v>
       </c>
@@ -11295,7 +11296,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -11336,7 +11337,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>128</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>128</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -11458,7 +11459,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>128</v>
       </c>
@@ -11479,7 +11480,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>128</v>
       </c>
@@ -11500,7 +11501,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -11521,7 +11522,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -11584,7 +11585,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>158</v>
       </c>
@@ -11604,7 +11605,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>128</v>
       </c>
@@ -11644,7 +11645,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -11664,7 +11665,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>128</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -11706,7 +11707,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -11726,7 +11727,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>128</v>
       </c>
@@ -11766,7 +11767,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>128</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="34" t="s">
         <v>128</v>
       </c>
@@ -11848,7 +11849,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="34" t="s">
         <v>128</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
         <v>128</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
         <v>128</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
         <v>128</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>158</v>
       </c>
@@ -11948,7 +11949,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -11968,7 +11969,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>158</v>
       </c>
@@ -12028,7 +12029,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -12091,7 +12092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -12112,7 +12113,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -12133,7 +12134,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -12196,7 +12197,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>128</v>
       </c>
@@ -12217,7 +12218,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>128</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>128</v>
       </c>
@@ -12259,7 +12260,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -12280,7 +12281,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -12301,7 +12302,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -12322,7 +12323,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -12343,7 +12344,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>128</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -12427,7 +12428,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -12448,7 +12449,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -12490,7 +12491,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -12511,7 +12512,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>128</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -12574,7 +12575,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>128</v>
       </c>
@@ -12595,7 +12596,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>128</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>128</v>
       </c>
@@ -12637,7 +12638,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="34" t="s">
         <v>128</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="34" t="s">
         <v>128</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="34" t="s">
         <v>128</v>
       </c>
@@ -12697,7 +12698,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="34" t="s">
         <v>128</v>
       </c>
@@ -12717,7 +12718,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="34" t="s">
         <v>128</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
         <v>128</v>
       </c>
@@ -12757,7 +12758,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
         <v>128</v>
       </c>
@@ -12777,7 +12778,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>128</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>128</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>128</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>128</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>128</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>128</v>
       </c>
@@ -12903,7 +12904,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>128</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>128</v>
       </c>
@@ -12945,7 +12946,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>128</v>
       </c>
@@ -12966,7 +12967,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>128</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>128</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>128</v>
       </c>
@@ -13029,7 +13030,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>128</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>128</v>
       </c>
@@ -13071,7 +13072,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>128</v>
       </c>
@@ -13092,7 +13093,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>128</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>128</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>128</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>128</v>
       </c>
@@ -13176,7 +13177,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>128</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>128</v>
       </c>
@@ -13218,7 +13219,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -13239,7 +13240,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>128</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>128</v>
       </c>
@@ -13279,7 +13280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>128</v>
       </c>
@@ -13321,7 +13322,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>128</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -13363,7 +13364,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>128</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>128</v>
       </c>
@@ -13405,7 +13406,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>128</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>128</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>128</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>128</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>128</v>
       </c>
@@ -13510,7 +13511,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>128</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="34" t="s">
         <v>128</v>
       </c>
@@ -13551,7 +13552,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>128</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -13593,7 +13594,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>128</v>
       </c>
@@ -13614,7 +13615,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>128</v>
       </c>
@@ -13635,7 +13636,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>128</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>128</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>128</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>128</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>128</v>
       </c>
@@ -13740,7 +13741,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>128</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>128</v>
       </c>
@@ -13782,7 +13783,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>128</v>
       </c>
@@ -13803,7 +13804,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>128</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>128</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>128</v>
       </c>
@@ -13866,7 +13867,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>128</v>
       </c>
@@ -13887,7 +13888,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>128</v>
       </c>
@@ -13908,7 +13909,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>128</v>
       </c>
@@ -13929,7 +13930,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>128</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>128</v>
       </c>
@@ -13971,7 +13972,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>128</v>
       </c>
@@ -13992,7 +13993,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>128</v>
       </c>
@@ -14013,7 +14014,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>128</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>128</v>
       </c>
@@ -14055,7 +14056,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>128</v>
       </c>
@@ -14076,7 +14077,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>128</v>
       </c>
@@ -14097,7 +14098,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>128</v>
       </c>
@@ -14118,7 +14119,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>128</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>128</v>
       </c>
@@ -14160,7 +14161,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>128</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>128</v>
       </c>
@@ -14202,7 +14203,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>128</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>128</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>128</v>
       </c>
@@ -14265,7 +14266,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>128</v>
       </c>
@@ -14286,7 +14287,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>128</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>128</v>
       </c>
@@ -14328,7 +14329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>128</v>
       </c>
@@ -14349,7 +14350,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>128</v>
       </c>
@@ -14370,7 +14371,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>128</v>
       </c>
@@ -14391,7 +14392,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -14454,7 +14455,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -14496,7 +14497,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -14517,7 +14518,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -14580,7 +14581,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -14622,7 +14623,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>158</v>
       </c>
@@ -14664,7 +14665,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>158</v>
       </c>
@@ -14685,7 +14686,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>158</v>
       </c>
@@ -14706,7 +14707,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>158</v>
       </c>
@@ -14727,7 +14728,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>158</v>
       </c>
@@ -14748,7 +14749,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>158</v>
       </c>
@@ -14769,7 +14770,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>158</v>
       </c>
@@ -14811,7 +14812,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>158</v>
       </c>
@@ -14832,7 +14833,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>158</v>
       </c>
@@ -14853,7 +14854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>158</v>
       </c>
@@ -14874,7 +14875,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>158</v>
       </c>
@@ -14895,7 +14896,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>158</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>158</v>
       </c>
@@ -14934,7 +14935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>158</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>158</v>
       </c>
@@ -14970,7 +14971,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>158</v>
       </c>
@@ -14988,7 +14989,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>158</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>158</v>
       </c>
@@ -15024,7 +15025,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>158</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>158</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>158</v>
       </c>
@@ -15096,7 +15097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>158</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>158</v>
       </c>
@@ -15132,7 +15133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>158</v>
       </c>
@@ -15150,7 +15151,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>158</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>158</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>158</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>158</v>
       </c>
@@ -15222,7 +15223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>158</v>
       </c>
@@ -15240,7 +15241,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>158</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>158</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>158</v>
       </c>
@@ -15294,7 +15295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>158</v>
       </c>
@@ -15312,7 +15313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>158</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>158</v>
       </c>
@@ -15348,7 +15349,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>158</v>
       </c>
@@ -15366,7 +15367,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>158</v>
       </c>
@@ -15384,7 +15385,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>158</v>
       </c>
@@ -15402,7 +15403,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>158</v>
       </c>
@@ -15420,7 +15421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>158</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>158</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>158</v>
       </c>
@@ -15474,7 +15475,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>158</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>158</v>
       </c>
@@ -15510,7 +15511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>158</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>158</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>158</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>158</v>
       </c>
@@ -15582,7 +15583,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>158</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>158</v>
       </c>
@@ -15618,7 +15619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>158</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>158</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>158</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>158</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>158</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>158</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>158</v>
       </c>
@@ -15744,7 +15745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>158</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>128</v>
       </c>
@@ -15780,7 +15781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>128</v>
       </c>
@@ -15798,7 +15799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>128</v>
       </c>
@@ -15816,7 +15817,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>128</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>128</v>
       </c>
@@ -15852,7 +15853,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>128</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>128</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>128</v>
       </c>
@@ -15906,7 +15907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>128</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>128</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>128</v>
       </c>
@@ -15960,7 +15961,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>128</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>128</v>
       </c>
@@ -15996,7 +15997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>128</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>128</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>128</v>
       </c>
@@ -16050,7 +16051,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>128</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>128</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>128</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>128</v>
       </c>
@@ -16122,7 +16123,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>128</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>128</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>128</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>128</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>128</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>128</v>
       </c>
@@ -16230,7 +16231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>128</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>128</v>
       </c>
@@ -16266,7 +16267,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>128</v>
       </c>
@@ -16284,7 +16285,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="34" t="s">
         <v>128</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="34" t="s">
         <v>128</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="34" t="s">
         <v>128</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="34" t="s">
         <v>128</v>
       </c>
@@ -16352,7 +16353,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="34" t="s">
         <v>128</v>
       </c>
@@ -16369,7 +16370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>128</v>
       </c>
@@ -16387,7 +16388,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>128</v>
       </c>
@@ -16405,7 +16406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>128</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>128</v>
       </c>
@@ -16441,7 +16442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>128</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>128</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>128</v>
       </c>
@@ -16495,7 +16496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>128</v>
       </c>
@@ -16513,7 +16514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>128</v>
       </c>
@@ -16531,7 +16532,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>128</v>
       </c>
@@ -16549,7 +16550,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>128</v>
       </c>
@@ -16567,7 +16568,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>128</v>
       </c>
@@ -16585,7 +16586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>128</v>
       </c>
@@ -16603,7 +16604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>128</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>128</v>
       </c>
@@ -16639,7 +16640,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>128</v>
       </c>
@@ -16657,7 +16658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>128</v>
       </c>
@@ -16675,7 +16676,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>128</v>
       </c>
@@ -16693,7 +16694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>128</v>
       </c>
@@ -16711,7 +16712,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>128</v>
       </c>
@@ -16729,7 +16730,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>128</v>
       </c>
@@ -16747,7 +16748,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>128</v>
       </c>
@@ -16765,7 +16766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>128</v>
       </c>
@@ -16783,7 +16784,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>128</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>128</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>128</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>128</v>
       </c>
@@ -16855,7 +16856,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>128</v>
       </c>
@@ -16873,7 +16874,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>128</v>
       </c>
@@ -16891,7 +16892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>128</v>
       </c>
@@ -16909,7 +16910,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>128</v>
       </c>
@@ -16927,7 +16928,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>128</v>
       </c>
@@ -16945,7 +16946,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>128</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>128</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>128</v>
       </c>
@@ -16999,7 +17000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>158</v>
       </c>
@@ -17017,7 +17018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>158</v>
       </c>
@@ -17035,7 +17036,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>158</v>
       </c>
@@ -17053,7 +17054,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>158</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>158</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>158</v>
       </c>
@@ -17107,7 +17108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>158</v>
       </c>
@@ -17125,7 +17126,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>158</v>
       </c>
@@ -17143,7 +17144,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>158</v>
       </c>
@@ -17161,7 +17162,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>158</v>
       </c>
@@ -17179,7 +17180,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>158</v>
       </c>
@@ -17197,7 +17198,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>158</v>
       </c>
@@ -17215,7 +17216,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>158</v>
       </c>
@@ -17233,7 +17234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>158</v>
       </c>
@@ -17251,7 +17252,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>158</v>
       </c>
@@ -17269,7 +17270,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>158</v>
       </c>
@@ -17287,7 +17288,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>128</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>128</v>
       </c>
@@ -17323,7 +17324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>128</v>
       </c>
@@ -17341,7 +17342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>128</v>
       </c>
@@ -17359,7 +17360,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>128</v>
       </c>
@@ -17377,7 +17378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>128</v>
       </c>
@@ -17411,25 +17412,25 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
     <col min="2" max="2" width="54" style="35" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="79.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>657</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -17456,7 +17457,7 @@
       </c>
       <c r="D3" s="42"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>140</v>
       </c>
@@ -17470,7 +17471,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
@@ -17484,7 +17485,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>101</v>
       </c>
@@ -17498,7 +17499,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
@@ -17506,7 +17507,7 @@
       <c r="C7" s="41"/>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>104</v>
       </c>
@@ -17514,7 +17515,7 @@
       <c r="C8" s="41"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>105</v>
       </c>
@@ -17528,7 +17529,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>106</v>
       </c>
@@ -17542,7 +17543,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -17556,7 +17557,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>107</v>
       </c>
@@ -17570,7 +17571,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>108</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>109</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>139</v>
       </c>
@@ -17612,7 +17613,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>110</v>
       </c>
@@ -17620,7 +17621,7 @@
       <c r="C16" s="41"/>
       <c r="D16" s="42"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>135</v>
       </c>
@@ -17628,7 +17629,7 @@
       <c r="C17" s="41"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -17636,7 +17637,7 @@
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
     </row>
-    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>111</v>
       </c>
@@ -17650,7 +17651,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>112</v>
       </c>
@@ -17664,7 +17665,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
@@ -17678,7 +17679,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
@@ -17692,7 +17693,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>115</v>
       </c>
@@ -17706,7 +17707,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>116</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>117</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>148</v>
       </c>
@@ -17742,7 +17743,7 @@
       <c r="C26" s="41"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>145</v>
       </c>
@@ -17750,7 +17751,7 @@
       <c r="C27" s="41"/>
       <c r="D27" s="42"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>147</v>
       </c>
@@ -17758,7 +17759,7 @@
       <c r="C28" s="41"/>
       <c r="D28" s="42"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>146</v>
       </c>
@@ -17766,7 +17767,7 @@
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>142</v>
       </c>
@@ -17774,7 +17775,7 @@
       <c r="C30" s="41"/>
       <c r="D30" s="42"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>143</v>
       </c>
@@ -17782,7 +17783,7 @@
       <c r="C31" s="41"/>
       <c r="D31" s="42"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>144</v>
       </c>
@@ -17790,7 +17791,7 @@
       <c r="C32" s="41"/>
       <c r="D32" s="42"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>132</v>
       </c>
@@ -17798,7 +17799,7 @@
       <c r="C33" s="41"/>
       <c r="D33" s="42"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>159</v>
       </c>
@@ -17806,7 +17807,7 @@
       <c r="C34" s="41"/>
       <c r="D34" s="42"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
@@ -17814,7 +17815,7 @@
       <c r="C35" s="41"/>
       <c r="D35" s="42"/>
     </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>118</v>
       </c>
@@ -17828,7 +17829,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>141</v>
       </c>
@@ -17836,7 +17837,7 @@
       <c r="C37" s="41"/>
       <c r="D37" s="42"/>
     </row>
-    <row r="38" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>119</v>
       </c>
@@ -17850,7 +17851,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>120</v>
       </c>
@@ -17858,7 +17859,7 @@
       <c r="C39" s="41"/>
       <c r="D39" s="42"/>
     </row>
-    <row r="40" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -17872,7 +17873,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
@@ -17880,7 +17881,7 @@
       <c r="C41" s="41"/>
       <c r="D41" s="42"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>133</v>
       </c>
@@ -17888,7 +17889,7 @@
       <c r="C42" s="41"/>
       <c r="D42" s="42"/>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>124</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>131</v>
       </c>
@@ -17910,7 +17911,7 @@
       <c r="C44" s="41"/>
       <c r="D44" s="42"/>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>122</v>
       </c>
@@ -17924,7 +17925,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>125</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>123</v>
       </c>
@@ -17946,7 +17947,7 @@
       <c r="C47" s="41"/>
       <c r="D47" s="42"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
         <v>155</v>
       </c>
@@ -17954,7 +17955,7 @@
       <c r="C48" s="41"/>
       <c r="D48" s="42"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
         <v>154</v>
       </c>
@@ -17962,7 +17963,7 @@
       <c r="C49" s="41"/>
       <c r="D49" s="42"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
         <v>156</v>
       </c>
@@ -17970,7 +17971,7 @@
       <c r="C50" s="41"/>
       <c r="D50" s="42"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
         <v>152</v>
       </c>
@@ -17978,7 +17979,7 @@
       <c r="C51" s="41"/>
       <c r="D51" s="42"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
         <v>153</v>
       </c>
@@ -17986,7 +17987,7 @@
       <c r="C52" s="41"/>
       <c r="D52" s="42"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
         <v>157</v>
       </c>
@@ -17994,7 +17995,7 @@
       <c r="C53" s="41"/>
       <c r="D53" s="42"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>136</v>
       </c>
@@ -18028,111 +18029,109 @@
       <selection sqref="A1:ET1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="41.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="36" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="48" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="33.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="34" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="18" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="23" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="82" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="83" max="84" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="82" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="83" max="84" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="26" bestFit="1" customWidth="1"/>
     <col min="90" max="91" width="43" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="24" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="43" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="29" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="43" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="29" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="34.21875" bestFit="1" customWidth="1"/>
-    <col min="110" max="112" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="115" max="117" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="119" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="122" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="125" max="126" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="112" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="114" max="117" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="119" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="122" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="125" max="126" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="127" max="128" width="44" bestFit="1" customWidth="1"/>
-    <col min="129" max="131" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="134" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="129" max="131" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="133" max="134" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="135" max="136" width="49" bestFit="1" customWidth="1"/>
-    <col min="137" max="139" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="143" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="141" max="143" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="145" max="146" width="23" bestFit="1" customWidth="1"/>
-    <col min="147" max="148" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="149" max="150" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="148" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="149" max="150" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>732</v>
       </c>
@@ -18284,7 +18283,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>733</v>
       </c>
@@ -18436,7 +18435,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>734</v>
       </c>
@@ -18588,7 +18587,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>735</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>736</v>
       </c>
@@ -18892,7 +18891,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>737</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>738</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:51" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>739</v>
       </c>
@@ -19354,7 +19353,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="9" spans="1:51" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>741</v>
       </c>
@@ -19458,7 +19457,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>742</v>
       </c>
@@ -19562,7 +19561,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>743</v>
       </c>
@@ -19666,7 +19665,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>744</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>745</v>
       </c>
@@ -19874,7 +19873,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>746</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>747</v>
       </c>
@@ -20082,7 +20081,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>748</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>658</v>
       </c>
@@ -20341,7 +20340,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>763</v>
       </c>
@@ -20496,7 +20495,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="19" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>764</v>
       </c>
@@ -20651,7 +20650,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="20" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>765</v>
       </c>
@@ -20806,7 +20805,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="21" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>766</v>
       </c>
@@ -20961,7 +20960,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="22" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>767</v>
       </c>
@@ -21116,7 +21115,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="23" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>768</v>
       </c>
@@ -21271,7 +21270,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="24" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>769</v>
       </c>
@@ -21426,7 +21425,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="25" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>805</v>
       </c>
@@ -21530,7 +21529,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>806</v>
       </c>
@@ -21634,7 +21633,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>807</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:77" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>808</v>
       </c>
@@ -21842,7 +21841,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:77" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>823</v>
       </c>
@@ -22075,7 +22074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>824</v>
       </c>
@@ -22308,7 +22307,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>825</v>
       </c>
@@ -22538,7 +22537,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:77" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>826</v>
       </c>
@@ -22768,7 +22767,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>827</v>
       </c>
@@ -23001,7 +23000,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>828</v>
       </c>
@@ -23231,7 +23230,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:150" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:150" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>829</v>
       </c>
@@ -23461,7 +23460,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:150" s="48" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:150" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>888</v>
       </c>
@@ -23480,7 +23479,7 @@
       <c r="F36" s="48" t="s">
         <v>688</v>
       </c>
-      <c r="G36" s="78" t="s">
+      <c r="G36" s="53" t="s">
         <v>689</v>
       </c>
       <c r="H36" s="48" t="s">
@@ -23492,7 +23491,7 @@
       <c r="J36" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="K36" s="78" t="s">
+      <c r="K36" s="53" t="s">
         <v>692</v>
       </c>
       <c r="L36" s="48" t="s">
@@ -23540,13 +23539,13 @@
       <c r="Z36" s="48" t="s">
         <v>909</v>
       </c>
-      <c r="AA36" s="78" t="s">
+      <c r="AA36" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="AB36" s="78" t="s">
+      <c r="AB36" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="AC36" s="78" t="s">
+      <c r="AC36" s="53" t="s">
         <v>696</v>
       </c>
       <c r="AD36" s="48" t="s">
@@ -23564,7 +23563,7 @@
       <c r="AH36" s="48" t="s">
         <v>912</v>
       </c>
-      <c r="AI36" s="78" t="s">
+      <c r="AI36" s="53" t="s">
         <v>713</v>
       </c>
       <c r="AJ36" s="48" t="s">
@@ -23759,10 +23758,10 @@
       <c r="CU36" s="48" t="s">
         <v>974</v>
       </c>
-      <c r="CV36" s="78" t="s">
+      <c r="CV36" s="53" t="s">
         <v>975</v>
       </c>
-      <c r="CW36" s="78" t="s">
+      <c r="CW36" s="53" t="s">
         <v>976</v>
       </c>
       <c r="CX36" s="48" t="s">
@@ -23783,7 +23782,7 @@
       <c r="DC36" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="DD36" s="78" t="s">
+      <c r="DD36" s="53" t="s">
         <v>983</v>
       </c>
       <c r="DE36" s="48" t="s">
@@ -23819,7 +23818,7 @@
       <c r="DO36" s="48" t="s">
         <v>994</v>
       </c>
-      <c r="DP36" s="78" t="s">
+      <c r="DP36" s="53" t="s">
         <v>995</v>
       </c>
       <c r="DQ36" s="48" t="s">
@@ -23910,7 +23909,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="37" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>889</v>
       </c>
@@ -24362,7 +24361,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="38" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>890</v>
       </c>
@@ -24814,7 +24813,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>891</v>
       </c>
@@ -25266,7 +25265,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="40" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>892</v>
       </c>
@@ -25718,7 +25717,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="41" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>893</v>
       </c>
@@ -26146,7 +26145,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="42" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>894</v>
       </c>
@@ -26598,7 +26597,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="43" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:150" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>888</v>
       </c>
@@ -27047,7 +27046,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="44" spans="1:150" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:150" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>895</v>
       </c>
@@ -27475,7 +27474,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="45" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1024</v>
       </c>
@@ -27582,7 +27581,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1025</v>
       </c>
@@ -27686,7 +27685,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="47" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1026</v>
       </c>
@@ -27793,7 +27792,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:150" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1027</v>
       </c>
@@ -27897,7 +27896,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1028</v>
       </c>
@@ -28001,7 +28000,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1029</v>
       </c>
@@ -28108,7 +28107,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1030</v>
       </c>
@@ -28212,7 +28211,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1031</v>
       </c>
@@ -28326,113 +28325,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EC16" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="2" sqref="A36:XFD36 A40:XFD40 A43:XFD43"/>
+    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="11" width="41.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="11" width="41.5703125" customWidth="1"/>
     <col min="12" max="12" width="41" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
-    <col min="14" max="14" width="36.88671875" customWidth="1"/>
-    <col min="15" max="15" width="36.77734375" customWidth="1"/>
-    <col min="16" max="18" width="39.77734375" customWidth="1"/>
-    <col min="19" max="19" width="39.44140625" customWidth="1"/>
-    <col min="20" max="20" width="42.5546875" customWidth="1"/>
-    <col min="21" max="21" width="49.33203125" customWidth="1"/>
-    <col min="22" max="22" width="39.21875" customWidth="1"/>
-    <col min="23" max="23" width="38.77734375" customWidth="1"/>
-    <col min="24" max="24" width="41.88671875" customWidth="1"/>
-    <col min="25" max="25" width="38.5546875" customWidth="1"/>
-    <col min="26" max="26" width="40.109375" customWidth="1"/>
-    <col min="27" max="28" width="33.88671875" customWidth="1"/>
+    <col min="13" max="13" width="32.7109375" customWidth="1"/>
+    <col min="14" max="14" width="36.85546875" customWidth="1"/>
+    <col min="15" max="15" width="36.7109375" customWidth="1"/>
+    <col min="16" max="18" width="39.7109375" customWidth="1"/>
+    <col min="19" max="19" width="39.42578125" customWidth="1"/>
+    <col min="20" max="20" width="42.5703125" customWidth="1"/>
+    <col min="21" max="21" width="49.28515625" customWidth="1"/>
+    <col min="22" max="22" width="39.28515625" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" customWidth="1"/>
+    <col min="24" max="24" width="41.85546875" customWidth="1"/>
+    <col min="25" max="25" width="38.5703125" customWidth="1"/>
+    <col min="26" max="26" width="40.140625" customWidth="1"/>
+    <col min="27" max="28" width="33.85546875" customWidth="1"/>
     <col min="29" max="30" width="36" customWidth="1"/>
-    <col min="31" max="32" width="36.44140625" customWidth="1"/>
-    <col min="33" max="33" width="39.33203125" customWidth="1"/>
+    <col min="31" max="32" width="36.42578125" customWidth="1"/>
+    <col min="33" max="33" width="39.28515625" customWidth="1"/>
     <col min="34" max="35" width="48" customWidth="1"/>
-    <col min="36" max="37" width="30.5546875" customWidth="1"/>
-    <col min="38" max="38" width="26.5546875" customWidth="1"/>
-    <col min="39" max="40" width="33.77734375" customWidth="1"/>
-    <col min="41" max="43" width="33.88671875" customWidth="1"/>
-    <col min="44" max="44" width="30.5546875" customWidth="1"/>
-    <col min="45" max="45" width="31.21875" customWidth="1"/>
-    <col min="46" max="47" width="35.44140625" customWidth="1"/>
-    <col min="48" max="48" width="32.109375" customWidth="1"/>
+    <col min="36" max="37" width="30.5703125" customWidth="1"/>
+    <col min="38" max="38" width="26.5703125" customWidth="1"/>
+    <col min="39" max="40" width="33.7109375" customWidth="1"/>
+    <col min="41" max="43" width="33.85546875" customWidth="1"/>
+    <col min="44" max="44" width="30.5703125" customWidth="1"/>
+    <col min="45" max="45" width="31.28515625" customWidth="1"/>
+    <col min="46" max="47" width="35.42578125" customWidth="1"/>
+    <col min="48" max="48" width="32.140625" customWidth="1"/>
     <col min="49" max="50" width="34" customWidth="1"/>
-    <col min="51" max="51" width="28.6640625" customWidth="1"/>
-    <col min="52" max="52" width="22.44140625" customWidth="1"/>
-    <col min="53" max="54" width="25.77734375" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" customWidth="1"/>
+    <col min="52" max="52" width="22.42578125" customWidth="1"/>
+    <col min="53" max="54" width="25.7109375" customWidth="1"/>
     <col min="55" max="55" width="18" customWidth="1"/>
-    <col min="56" max="57" width="23.21875" customWidth="1"/>
-    <col min="58" max="59" width="24.21875" customWidth="1"/>
-    <col min="60" max="61" width="26.6640625" customWidth="1"/>
+    <col min="56" max="57" width="23.28515625" customWidth="1"/>
+    <col min="58" max="59" width="24.28515625" customWidth="1"/>
+    <col min="60" max="61" width="26.7109375" customWidth="1"/>
     <col min="62" max="63" width="23" customWidth="1"/>
-    <col min="64" max="64" width="22.88671875" customWidth="1"/>
-    <col min="65" max="65" width="20.6640625" customWidth="1"/>
-    <col min="66" max="66" width="22.88671875" customWidth="1"/>
-    <col min="67" max="68" width="27.44140625" customWidth="1"/>
-    <col min="69" max="69" width="23.44140625" customWidth="1"/>
-    <col min="70" max="70" width="20.109375" customWidth="1"/>
-    <col min="71" max="72" width="21.44140625" customWidth="1"/>
-    <col min="73" max="73" width="20.44140625" customWidth="1"/>
-    <col min="74" max="75" width="24.77734375" customWidth="1"/>
-    <col min="76" max="76" width="22.6640625" customWidth="1"/>
-    <col min="77" max="78" width="26.6640625" customWidth="1"/>
-    <col min="79" max="80" width="35.21875" customWidth="1"/>
-    <col min="81" max="82" width="43.5546875" customWidth="1"/>
-    <col min="83" max="83" width="13.21875" customWidth="1"/>
-    <col min="84" max="85" width="37.5546875" customWidth="1"/>
-    <col min="86" max="86" width="25.77734375" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" customWidth="1"/>
+    <col min="65" max="65" width="20.7109375" customWidth="1"/>
+    <col min="66" max="66" width="22.85546875" customWidth="1"/>
+    <col min="67" max="68" width="27.42578125" customWidth="1"/>
+    <col min="69" max="69" width="23.42578125" customWidth="1"/>
+    <col min="70" max="70" width="20.140625" customWidth="1"/>
+    <col min="71" max="72" width="21.42578125" customWidth="1"/>
+    <col min="73" max="73" width="20.42578125" customWidth="1"/>
+    <col min="74" max="75" width="24.7109375" customWidth="1"/>
+    <col min="76" max="76" width="22.7109375" customWidth="1"/>
+    <col min="77" max="78" width="26.7109375" customWidth="1"/>
+    <col min="79" max="80" width="35.28515625" customWidth="1"/>
+    <col min="81" max="82" width="43.5703125" customWidth="1"/>
+    <col min="83" max="83" width="13.28515625" customWidth="1"/>
+    <col min="84" max="85" width="37.5703125" customWidth="1"/>
+    <col min="86" max="86" width="25.7109375" customWidth="1"/>
     <col min="87" max="87" width="26" customWidth="1"/>
     <col min="88" max="89" width="43" customWidth="1"/>
-    <col min="90" max="90" width="22.5546875" customWidth="1"/>
-    <col min="91" max="91" width="23.77734375" customWidth="1"/>
-    <col min="92" max="93" width="28.77734375" customWidth="1"/>
-    <col min="94" max="95" width="23.88671875" customWidth="1"/>
+    <col min="90" max="90" width="22.5703125" customWidth="1"/>
+    <col min="91" max="91" width="23.7109375" customWidth="1"/>
+    <col min="92" max="93" width="28.7109375" customWidth="1"/>
+    <col min="94" max="95" width="23.85546875" customWidth="1"/>
     <col min="96" max="96" width="24" customWidth="1"/>
     <col min="97" max="97" width="43" customWidth="1"/>
     <col min="98" max="98" width="29" customWidth="1"/>
     <col min="99" max="99" width="43" customWidth="1"/>
     <col min="100" max="100" width="29" customWidth="1"/>
-    <col min="101" max="101" width="30.77734375" customWidth="1"/>
-    <col min="102" max="102" width="26.44140625" customWidth="1"/>
-    <col min="103" max="103" width="31.44140625" customWidth="1"/>
-    <col min="104" max="104" width="29.88671875" customWidth="1"/>
-    <col min="105" max="105" width="31.44140625" customWidth="1"/>
-    <col min="106" max="106" width="30.109375" customWidth="1"/>
-    <col min="107" max="107" width="34.21875" customWidth="1"/>
-    <col min="108" max="110" width="34.33203125" customWidth="1"/>
-    <col min="111" max="111" width="35.109375" customWidth="1"/>
-    <col min="112" max="112" width="39.21875" customWidth="1"/>
-    <col min="113" max="115" width="39.33203125" customWidth="1"/>
-    <col min="116" max="117" width="36.44140625" customWidth="1"/>
-    <col min="118" max="120" width="43.5546875" customWidth="1"/>
-    <col min="121" max="121" width="34.33203125" customWidth="1"/>
-    <col min="122" max="122" width="29.6640625" customWidth="1"/>
-    <col min="123" max="124" width="34.6640625" customWidth="1"/>
+    <col min="101" max="101" width="30.7109375" customWidth="1"/>
+    <col min="102" max="102" width="26.42578125" customWidth="1"/>
+    <col min="103" max="103" width="31.42578125" customWidth="1"/>
+    <col min="104" max="104" width="29.85546875" customWidth="1"/>
+    <col min="105" max="105" width="31.42578125" customWidth="1"/>
+    <col min="106" max="106" width="30.140625" customWidth="1"/>
+    <col min="107" max="110" width="34.28515625" customWidth="1"/>
+    <col min="111" max="111" width="35.140625" customWidth="1"/>
+    <col min="112" max="115" width="39.28515625" customWidth="1"/>
+    <col min="116" max="117" width="36.42578125" customWidth="1"/>
+    <col min="118" max="120" width="43.5703125" customWidth="1"/>
+    <col min="121" max="121" width="34.28515625" customWidth="1"/>
+    <col min="122" max="122" width="29.7109375" customWidth="1"/>
+    <col min="123" max="124" width="34.7109375" customWidth="1"/>
     <col min="125" max="126" width="44" customWidth="1"/>
-    <col min="127" max="129" width="48.5546875" customWidth="1"/>
-    <col min="130" max="130" width="40.6640625" customWidth="1"/>
-    <col min="131" max="132" width="45.21875" customWidth="1"/>
+    <col min="127" max="129" width="48.5703125" customWidth="1"/>
+    <col min="130" max="130" width="40.7109375" customWidth="1"/>
+    <col min="131" max="132" width="45.28515625" customWidth="1"/>
     <col min="133" max="134" width="49" customWidth="1"/>
-    <col min="135" max="137" width="53.5546875" customWidth="1"/>
-    <col min="138" max="138" width="45.6640625" customWidth="1"/>
-    <col min="139" max="141" width="50.33203125" customWidth="1"/>
-    <col min="142" max="142" width="40.77734375" customWidth="1"/>
+    <col min="135" max="137" width="53.5703125" customWidth="1"/>
+    <col min="138" max="138" width="45.7109375" customWidth="1"/>
+    <col min="139" max="141" width="50.28515625" customWidth="1"/>
+    <col min="142" max="142" width="40.7109375" customWidth="1"/>
     <col min="143" max="144" width="23" customWidth="1"/>
-    <col min="145" max="146" width="23.77734375" customWidth="1"/>
-    <col min="147" max="148" width="24.6640625" customWidth="1"/>
+    <col min="145" max="146" width="23.7109375" customWidth="1"/>
+    <col min="147" max="148" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>1046</v>
       </c>
@@ -28654,7 +28651,7 @@
       <c r="EQ1" s="48"/>
       <c r="ER1" s="48"/>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>1047</v>
       </c>
@@ -28886,7 +28883,7 @@
       <c r="EQ2" s="4"/>
       <c r="ER2" s="4"/>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>1048</v>
       </c>
@@ -29108,7 +29105,7 @@
       <c r="EQ3" s="4"/>
       <c r="ER3" s="4"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>1049</v>
       </c>
@@ -29340,7 +29337,7 @@
       <c r="EQ4" s="4"/>
       <c r="ER4" s="4"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>1050</v>
       </c>
@@ -29576,7 +29573,7 @@
       <c r="EQ5" s="4"/>
       <c r="ER5" s="4"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>1051</v>
       </c>
@@ -29697,7 +29694,7 @@
       <c r="AV6" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="AW6" s="79" t="s">
+      <c r="AW6" s="54" t="s">
         <v>740</v>
       </c>
       <c r="AX6" s="4"/>
@@ -29800,7 +29797,7 @@
       <c r="EQ6" s="4"/>
       <c r="ER6" s="4"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>1052</v>
       </c>
@@ -29931,7 +29928,7 @@
       <c r="AV7" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="AW7" s="79" t="s">
+      <c r="AW7" s="54" t="s">
         <v>740</v>
       </c>
       <c r="AX7" s="4"/>
@@ -30034,7 +30031,7 @@
       <c r="EQ7" s="4"/>
       <c r="ER7" s="4"/>
     </row>
-    <row r="8" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>1053</v>
       </c>
@@ -30270,7 +30267,7 @@
       <c r="EQ8" s="51"/>
       <c r="ER8" s="51"/>
     </row>
-    <row r="9" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
         <v>1054</v>
       </c>
@@ -30460,7 +30457,7 @@
       <c r="EQ9" s="48"/>
       <c r="ER9" s="48"/>
     </row>
-    <row r="10" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>1055</v>
       </c>
@@ -30654,7 +30651,7 @@
       <c r="EQ10" s="4"/>
       <c r="ER10" s="4"/>
     </row>
-    <row r="11" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>1056</v>
       </c>
@@ -30844,7 +30841,7 @@
       <c r="EQ11" s="4"/>
       <c r="ER11" s="4"/>
     </row>
-    <row r="12" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>1057</v>
       </c>
@@ -31038,7 +31035,7 @@
       <c r="EQ12" s="4"/>
       <c r="ER12" s="4"/>
     </row>
-    <row r="13" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>1058</v>
       </c>
@@ -31240,7 +31237,7 @@
       <c r="EQ13" s="4"/>
       <c r="ER13" s="4"/>
     </row>
-    <row r="14" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>1059</v>
       </c>
@@ -31430,7 +31427,7 @@
       <c r="EQ14" s="4"/>
       <c r="ER14" s="4"/>
     </row>
-    <row r="15" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>1060</v>
       </c>
@@ -31624,7 +31621,7 @@
       <c r="EQ15" s="4"/>
       <c r="ER15" s="4"/>
     </row>
-    <row r="16" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>1061</v>
       </c>
@@ -31824,7 +31821,7 @@
       <c r="EQ16" s="51"/>
       <c r="ER16" s="51"/>
     </row>
-    <row r="17" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>1062</v>
       </c>
@@ -32048,7 +32045,7 @@
       <c r="EQ17" s="48"/>
       <c r="ER17" s="48"/>
     </row>
-    <row r="18" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>1063</v>
       </c>
@@ -32276,7 +32273,7 @@
       <c r="EQ18" s="4"/>
       <c r="ER18" s="4"/>
     </row>
-    <row r="19" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>1064</v>
       </c>
@@ -32500,7 +32497,7 @@
       <c r="EQ19" s="4"/>
       <c r="ER19" s="4"/>
     </row>
-    <row r="20" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>1065</v>
       </c>
@@ -32728,7 +32725,7 @@
       <c r="EQ20" s="4"/>
       <c r="ER20" s="4"/>
     </row>
-    <row r="21" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>1066</v>
       </c>
@@ -32960,7 +32957,7 @@
       <c r="EQ21" s="4"/>
       <c r="ER21" s="4"/>
     </row>
-    <row r="22" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>1067</v>
       </c>
@@ -33186,7 +33183,7 @@
       <c r="EQ22" s="4"/>
       <c r="ER22" s="4"/>
     </row>
-    <row r="23" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>1068</v>
       </c>
@@ -33414,7 +33411,7 @@
       <c r="EQ23" s="4"/>
       <c r="ER23" s="4"/>
     </row>
-    <row r="24" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
         <v>1069</v>
       </c>
@@ -33646,7 +33643,7 @@
       <c r="EQ24" s="51"/>
       <c r="ER24" s="51"/>
     </row>
-    <row r="25" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>1070</v>
       </c>
@@ -33836,7 +33833,7 @@
       <c r="EQ25" s="48"/>
       <c r="ER25" s="48"/>
     </row>
-    <row r="26" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>1071</v>
       </c>
@@ -34029,7 +34026,7 @@
       <c r="EQ26" s="4"/>
       <c r="ER26" s="4"/>
     </row>
-    <row r="27" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>1072</v>
       </c>
@@ -34219,7 +34216,7 @@
       <c r="EQ27" s="4"/>
       <c r="ER27" s="4"/>
     </row>
-    <row r="28" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
         <v>1073</v>
       </c>
@@ -34413,7 +34410,7 @@
       <c r="EQ28" s="51"/>
       <c r="ER28" s="51"/>
     </row>
-    <row r="29" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>1074</v>
       </c>
@@ -34689,7 +34686,7 @@
       <c r="EQ29" s="48"/>
       <c r="ER29" s="48"/>
     </row>
-    <row r="30" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>1075</v>
       </c>
@@ -34965,7 +34962,7 @@
       <c r="EQ30" s="4"/>
       <c r="ER30" s="4"/>
     </row>
-    <row r="31" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>1076</v>
       </c>
@@ -35243,7 +35240,7 @@
       <c r="EQ31" s="4"/>
       <c r="ER31" s="4"/>
     </row>
-    <row r="32" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>1077</v>
       </c>
@@ -35527,7 +35524,7 @@
       <c r="EQ32" s="4"/>
       <c r="ER32" s="4"/>
     </row>
-    <row r="33" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>1078</v>
       </c>
@@ -35803,7 +35800,7 @@
       <c r="EQ33" s="4"/>
       <c r="ER33" s="4"/>
     </row>
-    <row r="34" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>1079</v>
       </c>
@@ -36081,7 +36078,7 @@
       <c r="EQ34" s="4"/>
       <c r="ER34" s="4"/>
     </row>
-    <row r="35" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
         <v>1080</v>
       </c>
@@ -36365,20 +36362,20 @@
       <c r="EQ35" s="51"/>
       <c r="ER35" s="51"/>
     </row>
-    <row r="36" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>1081</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="53" t="s">
         <v>689</v>
       </c>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="53" t="s">
         <v>692</v>
       </c>
       <c r="J36" s="48"/>
@@ -36418,13 +36415,13 @@
       <c r="X36" s="48" t="s">
         <v>909</v>
       </c>
-      <c r="Y36" s="78" t="s">
+      <c r="Y36" s="53" t="s">
         <v>694</v>
       </c>
-      <c r="Z36" s="78" t="s">
+      <c r="Z36" s="53" t="s">
         <v>695</v>
       </c>
-      <c r="AA36" s="78" t="s">
+      <c r="AA36" s="53" t="s">
         <v>696</v>
       </c>
       <c r="AB36" s="48" t="s">
@@ -36442,7 +36439,7 @@
       <c r="AF36" s="48" t="s">
         <v>912</v>
       </c>
-      <c r="AG36" s="78" t="s">
+      <c r="AG36" s="53" t="s">
         <v>713</v>
       </c>
       <c r="AH36" s="48" t="s">
@@ -36637,10 +36634,10 @@
       <c r="CS36" s="48" t="s">
         <v>974</v>
       </c>
-      <c r="CT36" s="78" t="s">
+      <c r="CT36" s="53" t="s">
         <v>975</v>
       </c>
-      <c r="CU36" s="78" t="s">
+      <c r="CU36" s="53" t="s">
         <v>976</v>
       </c>
       <c r="CV36" s="48" t="s">
@@ -36661,7 +36658,7 @@
       <c r="DA36" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="DB36" s="78" t="s">
+      <c r="DB36" s="53" t="s">
         <v>983</v>
       </c>
       <c r="DC36" s="48" t="s">
@@ -36697,7 +36694,7 @@
       <c r="DM36" s="48" t="s">
         <v>994</v>
       </c>
-      <c r="DN36" s="78" t="s">
+      <c r="DN36" s="53" t="s">
         <v>995</v>
       </c>
       <c r="DO36" s="48" t="s">
@@ -36789,7 +36786,7 @@
       </c>
       <c r="ER36" s="48"/>
     </row>
-    <row r="37" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>1082</v>
       </c>
@@ -37211,7 +37208,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="38" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>1083</v>
       </c>
@@ -37637,7 +37634,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="39" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>1084</v>
       </c>
@@ -38059,7 +38056,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="40" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>1085</v>
       </c>
@@ -38485,7 +38482,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="41" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>1086</v>
       </c>
@@ -38899,7 +38896,7 @@
       <c r="EQ41" s="4"/>
       <c r="ER41" s="4"/>
     </row>
-    <row r="42" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>1087</v>
       </c>
@@ -39321,7 +39318,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="43" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>1081</v>
       </c>
@@ -39741,7 +39738,7 @@
       </c>
       <c r="ER43" s="4"/>
     </row>
-    <row r="44" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A44" s="51" t="s">
         <v>1088</v>
       </c>
@@ -40155,7 +40152,7 @@
       <c r="EQ44" s="51"/>
       <c r="ER44" s="51"/>
     </row>
-    <row r="45" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1089</v>
       </c>
@@ -40220,7 +40217,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1090</v>
       </c>
@@ -40294,7 +40291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="47" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1091</v>
       </c>
@@ -40359,7 +40356,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1092</v>
       </c>
@@ -40433,7 +40430,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1093</v>
       </c>
@@ -40516,7 +40513,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1094</v>
       </c>
@@ -40581,7 +40578,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1095</v>
       </c>
@@ -40655,7 +40652,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1096</v>
       </c>
@@ -40741,4 +40738,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>